--- a/export/files/excel/J59C_HB.xlsx
+++ b/export/files/excel/J59C_HB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\QC_Han\export\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0CCCF-ECE3-4844-886E-CC08A4AE70CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72857F85-3159-4609-85A4-29D259D3A9A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="168">
   <si>
     <t>LH</t>
   </si>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1934,723 +1934,735 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2994,6 +3006,388 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>11723</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>80303</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>12896</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5303C5-5683-4FA6-9CC7-06BC6FBA05B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3217985" y="17297400"/>
+          <a:ext cx="3620672" cy="2328204"/>
+          <a:chOff x="2809157" y="5570655"/>
+          <a:chExt cx="6784454" cy="4783793"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="MAZleftUpperImage">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3403A5-A074-4A4A-B2AD-87CE04ED13AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="-2023453">
+            <a:off x="5500469" y="5570655"/>
+            <a:ext cx="2937782" cy="1642382"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B9994A-3DE0-4229-9288-DC0BB7161249}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="53545" t="16974"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="7914491" y="7471769"/>
+            <a:ext cx="1679120" cy="1288596"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF82D16D-E84A-4B7B-91C0-42336E1E91F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="4707" t="11322"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2809157" y="5969411"/>
+            <a:ext cx="2200275" cy="1502228"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AF0414-35FB-4C99-B098-3E309B7C5EE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="11322" r="4707"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2924610" y="8271500"/>
+            <a:ext cx="1975756" cy="1488622"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="MAZleftUpperImage">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EC0E8E-D762-40AE-BA24-BC591545C792}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:clrChange>
+              <a:clrFrom>
+                <a:srgbClr val="FFFFFF"/>
+              </a:clrFrom>
+              <a:clrTo>
+                <a:srgbClr val="FFFFFF">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:clrTo>
+            </a:clrChange>
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="2146387" flipH="1">
+            <a:off x="5290078" y="8694376"/>
+            <a:ext cx="3083379" cy="1660072"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3442,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS312"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AN36" sqref="AN36:AP36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A74" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AJ85" sqref="AJ85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3494,496 +3888,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="200" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="200"/>
-      <c r="AI1" s="200"/>
-      <c r="AJ1" s="200"/>
-      <c r="AK1" s="60" t="s">
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
     </row>
     <row r="2" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="176"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="176"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="176"/>
-      <c r="AS2" s="176"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="205"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="205"/>
+      <c r="AJ2" s="205"/>
+      <c r="AK2" s="186"/>
+      <c r="AL2" s="186"/>
+      <c r="AM2" s="186"/>
+      <c r="AN2" s="186"/>
+      <c r="AO2" s="186"/>
+      <c r="AP2" s="186"/>
+      <c r="AQ2" s="186"/>
+      <c r="AR2" s="186"/>
+      <c r="AS2" s="186"/>
     </row>
     <row r="3" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="202"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="206"/>
+      <c r="AJ3" s="206"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
     </row>
     <row r="4" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="178"/>
-      <c r="Y4" s="178"/>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="178"/>
-      <c r="AF4" s="178"/>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="179"/>
-      <c r="AK4" s="193" t="s">
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="188"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
+      <c r="Y4" s="188"/>
+      <c r="Z4" s="188"/>
+      <c r="AA4" s="188"/>
+      <c r="AB4" s="188"/>
+      <c r="AC4" s="188"/>
+      <c r="AD4" s="188"/>
+      <c r="AE4" s="188"/>
+      <c r="AF4" s="188"/>
+      <c r="AG4" s="188"/>
+      <c r="AH4" s="188"/>
+      <c r="AI4" s="188"/>
+      <c r="AJ4" s="189"/>
+      <c r="AK4" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="AL4" s="193"/>
-      <c r="AM4" s="193"/>
-      <c r="AN4" s="193"/>
-      <c r="AO4" s="193"/>
-      <c r="AP4" s="184" t="s">
+      <c r="AL4" s="203"/>
+      <c r="AM4" s="203"/>
+      <c r="AN4" s="203"/>
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="184"/>
-      <c r="AR4" s="184"/>
-      <c r="AS4" s="184"/>
+      <c r="AQ4" s="194"/>
+      <c r="AR4" s="194"/>
+      <c r="AS4" s="194"/>
     </row>
     <row r="5" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="182"/>
-      <c r="AK5" s="193"/>
-      <c r="AL5" s="193"/>
-      <c r="AM5" s="193"/>
-      <c r="AN5" s="193"/>
-      <c r="AO5" s="193"/>
-      <c r="AP5" s="184"/>
-      <c r="AQ5" s="184"/>
-      <c r="AR5" s="184"/>
-      <c r="AS5" s="184"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="191"/>
+      <c r="S5" s="191"/>
+      <c r="T5" s="191"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="191"/>
+      <c r="W5" s="191"/>
+      <c r="X5" s="191"/>
+      <c r="Y5" s="191"/>
+      <c r="Z5" s="191"/>
+      <c r="AA5" s="191"/>
+      <c r="AB5" s="191"/>
+      <c r="AC5" s="191"/>
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="192"/>
+      <c r="AK5" s="203"/>
+      <c r="AL5" s="203"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="203"/>
+      <c r="AO5" s="203"/>
+      <c r="AP5" s="194"/>
+      <c r="AQ5" s="194"/>
+      <c r="AR5" s="194"/>
+      <c r="AS5" s="194"/>
     </row>
     <row r="6" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="181"/>
-      <c r="AA6" s="181"/>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="181"/>
-      <c r="AF6" s="181"/>
-      <c r="AG6" s="181"/>
-      <c r="AH6" s="181"/>
-      <c r="AI6" s="181"/>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="193"/>
-      <c r="AL6" s="193"/>
-      <c r="AM6" s="193"/>
-      <c r="AN6" s="193"/>
-      <c r="AO6" s="193"/>
-      <c r="AP6" s="184"/>
-      <c r="AQ6" s="184"/>
-      <c r="AR6" s="184"/>
-      <c r="AS6" s="184"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="191"/>
+      <c r="W6" s="191"/>
+      <c r="X6" s="191"/>
+      <c r="Y6" s="191"/>
+      <c r="Z6" s="191"/>
+      <c r="AA6" s="191"/>
+      <c r="AB6" s="191"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
+      <c r="AF6" s="191"/>
+      <c r="AG6" s="191"/>
+      <c r="AH6" s="191"/>
+      <c r="AI6" s="191"/>
+      <c r="AJ6" s="192"/>
+      <c r="AK6" s="203"/>
+      <c r="AL6" s="203"/>
+      <c r="AM6" s="203"/>
+      <c r="AN6" s="203"/>
+      <c r="AO6" s="203"/>
+      <c r="AP6" s="194"/>
+      <c r="AQ6" s="194"/>
+      <c r="AR6" s="194"/>
+      <c r="AS6" s="194"/>
     </row>
     <row r="7" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185" t="s">
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
-      <c r="U7" s="185"/>
-      <c r="V7" s="185"/>
-      <c r="W7" s="183" t="s">
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="195"/>
+      <c r="Q7" s="195"/>
+      <c r="R7" s="195"/>
+      <c r="S7" s="195"/>
+      <c r="T7" s="195"/>
+      <c r="U7" s="195"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="193"/>
-      <c r="AL7" s="193"/>
-      <c r="AM7" s="193"/>
-      <c r="AN7" s="193"/>
-      <c r="AO7" s="193"/>
-      <c r="AP7" s="184"/>
-      <c r="AQ7" s="184"/>
-      <c r="AR7" s="184"/>
-      <c r="AS7" s="184"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="193"/>
+      <c r="AK7" s="203"/>
+      <c r="AL7" s="203"/>
+      <c r="AM7" s="203"/>
+      <c r="AN7" s="203"/>
+      <c r="AO7" s="203"/>
+      <c r="AP7" s="194"/>
+      <c r="AQ7" s="194"/>
+      <c r="AR7" s="194"/>
+      <c r="AS7" s="194"/>
     </row>
     <row r="8" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="186"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="186"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183"/>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="183"/>
-      <c r="AD8" s="183"/>
-      <c r="AE8" s="183"/>
-      <c r="AF8" s="183"/>
-      <c r="AG8" s="183"/>
-      <c r="AH8" s="183"/>
-      <c r="AI8" s="183"/>
-      <c r="AJ8" s="183"/>
-      <c r="AK8" s="193"/>
-      <c r="AL8" s="193"/>
-      <c r="AM8" s="193"/>
-      <c r="AN8" s="193"/>
-      <c r="AO8" s="193"/>
-      <c r="AP8" s="184"/>
-      <c r="AQ8" s="184"/>
-      <c r="AR8" s="184"/>
-      <c r="AS8" s="184"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="193"/>
+      <c r="AG8" s="193"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="193"/>
+      <c r="AJ8" s="193"/>
+      <c r="AK8" s="203"/>
+      <c r="AL8" s="203"/>
+      <c r="AM8" s="203"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="203"/>
+      <c r="AP8" s="194"/>
+      <c r="AQ8" s="194"/>
+      <c r="AR8" s="194"/>
+      <c r="AS8" s="194"/>
     </row>
     <row r="9" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="188" t="s">
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="189"/>
-      <c r="W9" s="183" t="s">
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="198"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="199"/>
+      <c r="W9" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="183"/>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183"/>
-      <c r="AD9" s="183"/>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="183"/>
-      <c r="AJ9" s="183"/>
-      <c r="AK9" s="193"/>
-      <c r="AL9" s="193"/>
-      <c r="AM9" s="193"/>
-      <c r="AN9" s="193"/>
-      <c r="AO9" s="193"/>
-      <c r="AP9" s="184"/>
-      <c r="AQ9" s="184"/>
-      <c r="AR9" s="184"/>
-      <c r="AS9" s="184"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="193"/>
+      <c r="AI9" s="193"/>
+      <c r="AJ9" s="193"/>
+      <c r="AK9" s="203"/>
+      <c r="AL9" s="203"/>
+      <c r="AM9" s="203"/>
+      <c r="AN9" s="203"/>
+      <c r="AO9" s="203"/>
+      <c r="AP9" s="194"/>
+      <c r="AQ9" s="194"/>
+      <c r="AR9" s="194"/>
+      <c r="AS9" s="194"/>
     </row>
     <row r="10" spans="1:45" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="190"/>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="183"/>
-      <c r="X10" s="183"/>
-      <c r="Y10" s="183"/>
-      <c r="Z10" s="183"/>
-      <c r="AA10" s="183"/>
-      <c r="AB10" s="183"/>
-      <c r="AC10" s="183"/>
-      <c r="AD10" s="183"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="183"/>
-      <c r="AJ10" s="183"/>
-      <c r="AK10" s="193"/>
-      <c r="AL10" s="193"/>
-      <c r="AM10" s="193"/>
-      <c r="AN10" s="193"/>
-      <c r="AO10" s="193"/>
-      <c r="AP10" s="184"/>
-      <c r="AQ10" s="184"/>
-      <c r="AR10" s="184"/>
-      <c r="AS10" s="184"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="201"/>
+      <c r="R10" s="201"/>
+      <c r="S10" s="201"/>
+      <c r="T10" s="201"/>
+      <c r="U10" s="201"/>
+      <c r="V10" s="202"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="193"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="193"/>
+      <c r="AH10" s="193"/>
+      <c r="AI10" s="193"/>
+      <c r="AJ10" s="193"/>
+      <c r="AK10" s="203"/>
+      <c r="AL10" s="203"/>
+      <c r="AM10" s="203"/>
+      <c r="AN10" s="203"/>
+      <c r="AO10" s="203"/>
+      <c r="AP10" s="194"/>
+      <c r="AQ10" s="194"/>
+      <c r="AR10" s="194"/>
+      <c r="AS10" s="194"/>
     </row>
     <row r="11" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="234" t="s">
@@ -4006,57 +4400,57 @@
       <c r="P11" s="235"/>
       <c r="Q11" s="235"/>
       <c r="R11" s="236"/>
-      <c r="S11" s="118" t="s">
+      <c r="S11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="120"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="106"/>
     </row>
     <row r="12" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
@@ -4650,42 +5044,42 @@
       <c r="AS24" s="7"/>
     </row>
     <row r="25" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="62" t="s">
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="168"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="237" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
       <c r="O25" s="238" t="s">
         <v>137</v>
       </c>
       <c r="P25" s="239"/>
-      <c r="Q25" s="168" t="s">
+      <c r="Q25" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="141"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="168" t="s">
+      <c r="R25" s="157"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="U25" s="141"/>
-      <c r="V25" s="142"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="158"/>
       <c r="W25" s="14"/>
       <c r="X25" s="240" t="s">
         <v>15</v>
@@ -4693,194 +5087,194 @@
       <c r="Y25" s="241"/>
       <c r="Z25" s="241"/>
       <c r="AA25" s="242"/>
-      <c r="AB25" s="62" t="s">
+      <c r="AB25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62" t="s">
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
       <c r="AH25" s="237" t="s">
         <v>136</v>
       </c>
-      <c r="AI25" s="141"/>
-      <c r="AJ25" s="141"/>
-      <c r="AK25" s="141"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="157"/>
+      <c r="AK25" s="157"/>
       <c r="AL25" s="238" t="s">
         <v>137</v>
       </c>
       <c r="AM25" s="239"/>
-      <c r="AN25" s="168" t="s">
+      <c r="AN25" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="AO25" s="141"/>
-      <c r="AP25" s="142"/>
-      <c r="AQ25" s="168" t="s">
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="158"/>
+      <c r="AQ25" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="AR25" s="141"/>
-      <c r="AS25" s="142"/>
+      <c r="AR25" s="157"/>
+      <c r="AS25" s="158"/>
     </row>
     <row r="26" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="41" t="s">
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="169" t="s">
+      <c r="F26" s="167"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="160" t="s">
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="126" t="s">
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="167"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="166"/>
-      <c r="V26" s="167"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="183"/>
       <c r="W26" s="15"/>
-      <c r="X26" s="16" t="s">
+      <c r="X26" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="40" t="s">
+      <c r="Y26" s="123"/>
+      <c r="Z26" s="123"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="42" t="s">
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="33" t="s">
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="31" t="s">
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="165"/>
-      <c r="AO26" s="166"/>
-      <c r="AP26" s="167"/>
-      <c r="AQ26" s="165"/>
-      <c r="AR26" s="166"/>
-      <c r="AS26" s="167"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="181"/>
+      <c r="AO26" s="182"/>
+      <c r="AP26" s="183"/>
+      <c r="AQ26" s="181"/>
+      <c r="AR26" s="182"/>
+      <c r="AS26" s="183"/>
     </row>
     <row r="27" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="41" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="160" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="163" t="s">
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="165"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="167"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="167"/>
+      <c r="P27" s="180"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="182"/>
+      <c r="V27" s="183"/>
       <c r="W27" s="15"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="42" t="s">
+      <c r="X27" s="125"/>
+      <c r="Y27" s="126"/>
+      <c r="Z27" s="126"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="33" t="s">
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="31" t="s">
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="165"/>
-      <c r="AO27" s="166"/>
-      <c r="AP27" s="167"/>
-      <c r="AQ27" s="165"/>
-      <c r="AR27" s="166"/>
-      <c r="AS27" s="167"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="181"/>
+      <c r="AO27" s="182"/>
+      <c r="AP27" s="183"/>
+      <c r="AQ27" s="181"/>
+      <c r="AR27" s="182"/>
+      <c r="AS27" s="183"/>
     </row>
     <row r="28" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="41" t="s">
+      <c r="A28" s="131"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="169" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="160" t="s">
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="161" t="s">
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="165"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="167"/>
+      <c r="P28" s="178"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="183"/>
       <c r="W28" s="15"/>
       <c r="X28" s="220" t="s">
         <v>18</v>
@@ -4888,369 +5282,369 @@
       <c r="Y28" s="221"/>
       <c r="Z28" s="221"/>
       <c r="AA28" s="222"/>
-      <c r="AB28" s="170" t="s">
+      <c r="AB28" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="AC28" s="171"/>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="42" t="s">
+      <c r="AC28" s="208"/>
+      <c r="AD28" s="209"/>
+      <c r="AE28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="160" t="s">
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="AI28" s="161"/>
-      <c r="AJ28" s="161"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="161" t="s">
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="178"/>
+      <c r="AL28" s="177" t="s">
         <v>140</v>
       </c>
-      <c r="AM28" s="162"/>
-      <c r="AN28" s="165"/>
-      <c r="AO28" s="166"/>
-      <c r="AP28" s="167"/>
-      <c r="AQ28" s="165"/>
-      <c r="AR28" s="166"/>
-      <c r="AS28" s="167"/>
+      <c r="AM28" s="178"/>
+      <c r="AN28" s="181"/>
+      <c r="AO28" s="182"/>
+      <c r="AP28" s="183"/>
+      <c r="AQ28" s="181"/>
+      <c r="AR28" s="182"/>
+      <c r="AS28" s="183"/>
     </row>
     <row r="29" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="160" t="s">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="161" t="s">
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="178"/>
+      <c r="O29" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="167"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="166"/>
-      <c r="V29" s="167"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="183"/>
       <c r="W29" s="15"/>
       <c r="X29" s="220"/>
       <c r="Y29" s="221"/>
       <c r="Z29" s="221"/>
       <c r="AA29" s="222"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="175"/>
-      <c r="AE29" s="42" t="s">
+      <c r="AB29" s="210"/>
+      <c r="AC29" s="211"/>
+      <c r="AD29" s="212"/>
+      <c r="AE29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="160" t="s">
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="AI29" s="161"/>
-      <c r="AJ29" s="161"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="31" t="s">
+      <c r="AI29" s="177"/>
+      <c r="AJ29" s="177"/>
+      <c r="AK29" s="178"/>
+      <c r="AL29" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="165"/>
-      <c r="AO29" s="166"/>
-      <c r="AP29" s="167"/>
-      <c r="AQ29" s="165"/>
-      <c r="AR29" s="166"/>
-      <c r="AS29" s="167"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="181"/>
+      <c r="AO29" s="182"/>
+      <c r="AP29" s="183"/>
+      <c r="AQ29" s="181"/>
+      <c r="AR29" s="182"/>
+      <c r="AS29" s="183"/>
     </row>
     <row r="30" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="41" t="s">
+      <c r="A30" s="131"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="156" t="s">
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="160" t="s">
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="161" t="s">
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="165"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="167"/>
-      <c r="T30" s="165"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="167"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="181"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="183"/>
       <c r="W30" s="15"/>
       <c r="X30" s="220"/>
       <c r="Y30" s="221"/>
       <c r="Z30" s="221"/>
       <c r="AA30" s="222"/>
-      <c r="AB30" s="170" t="s">
+      <c r="AB30" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="172"/>
-      <c r="AE30" s="42" t="s">
+      <c r="AC30" s="208"/>
+      <c r="AD30" s="209"/>
+      <c r="AE30" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="160" t="s">
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="AI30" s="161"/>
-      <c r="AJ30" s="161"/>
-      <c r="AK30" s="162"/>
-      <c r="AL30" s="161" t="s">
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="177"/>
+      <c r="AK30" s="178"/>
+      <c r="AL30" s="177" t="s">
         <v>143</v>
       </c>
-      <c r="AM30" s="162"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="166"/>
-      <c r="AP30" s="167"/>
-      <c r="AQ30" s="165"/>
-      <c r="AR30" s="166"/>
-      <c r="AS30" s="167"/>
+      <c r="AM30" s="178"/>
+      <c r="AN30" s="181"/>
+      <c r="AO30" s="182"/>
+      <c r="AP30" s="183"/>
+      <c r="AQ30" s="181"/>
+      <c r="AR30" s="182"/>
+      <c r="AS30" s="183"/>
     </row>
     <row r="31" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="157" t="s">
+      <c r="A31" s="131"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160" t="s">
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="161" t="s">
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="178"/>
+      <c r="O31" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="167"/>
-      <c r="T31" s="165"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="167"/>
+      <c r="P31" s="178"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="183"/>
       <c r="W31" s="15"/>
       <c r="X31" s="220"/>
       <c r="Y31" s="221"/>
       <c r="Z31" s="221"/>
       <c r="AA31" s="222"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="174"/>
-      <c r="AD31" s="175"/>
-      <c r="AE31" s="42" t="s">
+      <c r="AB31" s="210"/>
+      <c r="AC31" s="211"/>
+      <c r="AD31" s="212"/>
+      <c r="AE31" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="160" t="s">
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="AI31" s="161"/>
-      <c r="AJ31" s="161"/>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="161" t="s">
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="178"/>
+      <c r="AL31" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="AM31" s="162"/>
-      <c r="AN31" s="165"/>
-      <c r="AO31" s="166"/>
-      <c r="AP31" s="167"/>
-      <c r="AQ31" s="165"/>
-      <c r="AR31" s="166"/>
-      <c r="AS31" s="167"/>
+      <c r="AM31" s="178"/>
+      <c r="AN31" s="181"/>
+      <c r="AO31" s="182"/>
+      <c r="AP31" s="183"/>
+      <c r="AQ31" s="181"/>
+      <c r="AR31" s="182"/>
+      <c r="AS31" s="183"/>
     </row>
     <row r="32" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="41" t="s">
+      <c r="A32" s="131"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42" t="s">
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="160" t="s">
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="161" t="s">
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="165"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="167"/>
-      <c r="T32" s="165"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="167"/>
+      <c r="P32" s="178"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="183"/>
       <c r="W32" s="15"/>
       <c r="X32" s="220"/>
       <c r="Y32" s="221"/>
       <c r="Z32" s="221"/>
       <c r="AA32" s="222"/>
-      <c r="AB32" s="170" t="s">
+      <c r="AB32" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="AC32" s="171"/>
-      <c r="AD32" s="172"/>
-      <c r="AE32" s="169" t="s">
+      <c r="AC32" s="208"/>
+      <c r="AD32" s="209"/>
+      <c r="AE32" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="AF32" s="169"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="160" t="s">
+      <c r="AF32" s="185"/>
+      <c r="AG32" s="185"/>
+      <c r="AH32" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="AI32" s="161"/>
-      <c r="AJ32" s="161"/>
-      <c r="AK32" s="162"/>
-      <c r="AL32" s="161" t="s">
+      <c r="AI32" s="177"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="178"/>
+      <c r="AL32" s="177" t="s">
         <v>147</v>
       </c>
-      <c r="AM32" s="162"/>
-      <c r="AN32" s="165"/>
-      <c r="AO32" s="166"/>
-      <c r="AP32" s="167"/>
-      <c r="AQ32" s="165"/>
-      <c r="AR32" s="166"/>
-      <c r="AS32" s="167"/>
+      <c r="AM32" s="178"/>
+      <c r="AN32" s="181"/>
+      <c r="AO32" s="182"/>
+      <c r="AP32" s="183"/>
+      <c r="AQ32" s="181"/>
+      <c r="AR32" s="182"/>
+      <c r="AS32" s="183"/>
     </row>
     <row r="33" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="157" t="s">
+      <c r="A33" s="131"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160" t="s">
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="161" t="s">
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="167"/>
-      <c r="T33" s="165"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="167"/>
+      <c r="P33" s="178"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="183"/>
       <c r="W33" s="15"/>
       <c r="X33" s="220"/>
       <c r="Y33" s="221"/>
       <c r="Z33" s="221"/>
       <c r="AA33" s="222"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="175"/>
-      <c r="AE33" s="169" t="s">
+      <c r="AB33" s="210"/>
+      <c r="AC33" s="211"/>
+      <c r="AD33" s="212"/>
+      <c r="AE33" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="AF33" s="169"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="160" t="s">
+      <c r="AF33" s="185"/>
+      <c r="AG33" s="185"/>
+      <c r="AH33" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="AI33" s="161"/>
-      <c r="AJ33" s="161"/>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="161" t="s">
+      <c r="AI33" s="177"/>
+      <c r="AJ33" s="177"/>
+      <c r="AK33" s="178"/>
+      <c r="AL33" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="AM33" s="162"/>
-      <c r="AN33" s="165"/>
-      <c r="AO33" s="166"/>
-      <c r="AP33" s="167"/>
-      <c r="AQ33" s="165"/>
-      <c r="AR33" s="166"/>
-      <c r="AS33" s="167"/>
+      <c r="AM33" s="178"/>
+      <c r="AN33" s="181"/>
+      <c r="AO33" s="182"/>
+      <c r="AP33" s="183"/>
+      <c r="AQ33" s="181"/>
+      <c r="AR33" s="182"/>
+      <c r="AS33" s="183"/>
     </row>
     <row r="34" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="143" t="s">
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="156" t="s">
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="150" t="s">
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="148" t="s">
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="165"/>
+      <c r="O34" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="167"/>
-      <c r="T34" s="165"/>
-      <c r="U34" s="166"/>
-      <c r="V34" s="167"/>
+      <c r="P34" s="165"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="182"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="181"/>
+      <c r="U34" s="182"/>
+      <c r="V34" s="183"/>
       <c r="W34" s="15"/>
       <c r="X34" s="217" t="s">
         <v>19</v>
@@ -5258,677 +5652,677 @@
       <c r="Y34" s="218"/>
       <c r="Z34" s="218"/>
       <c r="AA34" s="219"/>
-      <c r="AB34" s="170" t="s">
+      <c r="AB34" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="AC34" s="171"/>
-      <c r="AD34" s="172"/>
-      <c r="AE34" s="169" t="s">
+      <c r="AC34" s="208"/>
+      <c r="AD34" s="209"/>
+      <c r="AE34" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="AF34" s="169"/>
-      <c r="AG34" s="169"/>
-      <c r="AH34" s="160" t="s">
+      <c r="AF34" s="185"/>
+      <c r="AG34" s="185"/>
+      <c r="AH34" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="AI34" s="161"/>
-      <c r="AJ34" s="161"/>
-      <c r="AK34" s="162"/>
-      <c r="AL34" s="161" t="s">
+      <c r="AI34" s="177"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="178"/>
+      <c r="AL34" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="AM34" s="162"/>
-      <c r="AN34" s="165"/>
-      <c r="AO34" s="166"/>
-      <c r="AP34" s="167"/>
-      <c r="AQ34" s="165"/>
-      <c r="AR34" s="166"/>
-      <c r="AS34" s="167"/>
+      <c r="AM34" s="178"/>
+      <c r="AN34" s="181"/>
+      <c r="AO34" s="182"/>
+      <c r="AP34" s="183"/>
+      <c r="AQ34" s="181"/>
+      <c r="AR34" s="182"/>
+      <c r="AS34" s="183"/>
     </row>
     <row r="35" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="156" t="s">
+      <c r="A35" s="131"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="147" t="s">
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="L35" s="145"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="145" t="s">
+      <c r="L35" s="161"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="165"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="167"/>
-      <c r="T35" s="165"/>
-      <c r="U35" s="166"/>
-      <c r="V35" s="167"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="182"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="182"/>
+      <c r="V35" s="183"/>
       <c r="W35" s="15"/>
       <c r="X35" s="220"/>
       <c r="Y35" s="221"/>
       <c r="Z35" s="221"/>
       <c r="AA35" s="222"/>
-      <c r="AB35" s="173"/>
-      <c r="AC35" s="174"/>
-      <c r="AD35" s="175"/>
-      <c r="AE35" s="169" t="s">
+      <c r="AB35" s="210"/>
+      <c r="AC35" s="211"/>
+      <c r="AD35" s="212"/>
+      <c r="AE35" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="AF35" s="169"/>
-      <c r="AG35" s="169"/>
-      <c r="AH35" s="160" t="s">
+      <c r="AF35" s="185"/>
+      <c r="AG35" s="185"/>
+      <c r="AH35" s="176" t="s">
         <v>154</v>
       </c>
-      <c r="AI35" s="161"/>
-      <c r="AJ35" s="161"/>
-      <c r="AK35" s="162"/>
-      <c r="AL35" s="161" t="s">
+      <c r="AI35" s="177"/>
+      <c r="AJ35" s="177"/>
+      <c r="AK35" s="178"/>
+      <c r="AL35" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="AM35" s="162"/>
-      <c r="AN35" s="165"/>
-      <c r="AO35" s="166"/>
-      <c r="AP35" s="167"/>
-      <c r="AQ35" s="165"/>
-      <c r="AR35" s="166"/>
-      <c r="AS35" s="167"/>
+      <c r="AM35" s="178"/>
+      <c r="AN35" s="181"/>
+      <c r="AO35" s="182"/>
+      <c r="AP35" s="183"/>
+      <c r="AQ35" s="181"/>
+      <c r="AR35" s="182"/>
+      <c r="AS35" s="183"/>
     </row>
     <row r="36" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="143" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="156" t="s">
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="150" t="s">
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="148" t="s">
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="165"/>
+      <c r="O36" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="P36" s="149"/>
-      <c r="Q36" s="165"/>
-      <c r="R36" s="166"/>
-      <c r="S36" s="167"/>
-      <c r="T36" s="165"/>
-      <c r="U36" s="166"/>
-      <c r="V36" s="167"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="182"/>
+      <c r="S36" s="183"/>
+      <c r="T36" s="181"/>
+      <c r="U36" s="182"/>
+      <c r="V36" s="183"/>
       <c r="W36" s="15"/>
       <c r="X36" s="220"/>
       <c r="Y36" s="221"/>
       <c r="Z36" s="221"/>
       <c r="AA36" s="222"/>
-      <c r="AB36" s="170" t="s">
+      <c r="AB36" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="AC36" s="171"/>
-      <c r="AD36" s="172"/>
+      <c r="AC36" s="208"/>
+      <c r="AD36" s="209"/>
       <c r="AE36" s="214" t="s">
         <v>3</v>
       </c>
       <c r="AF36" s="215"/>
       <c r="AG36" s="216"/>
-      <c r="AH36" s="160" t="s">
+      <c r="AH36" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="AI36" s="161"/>
-      <c r="AJ36" s="161"/>
-      <c r="AK36" s="162"/>
-      <c r="AL36" s="160" t="s">
+      <c r="AI36" s="177"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="178"/>
+      <c r="AL36" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="AM36" s="162"/>
-      <c r="AN36" s="165"/>
-      <c r="AO36" s="166"/>
-      <c r="AP36" s="167"/>
-      <c r="AQ36" s="165"/>
-      <c r="AR36" s="166"/>
-      <c r="AS36" s="167"/>
+      <c r="AM36" s="178"/>
+      <c r="AN36" s="181"/>
+      <c r="AO36" s="182"/>
+      <c r="AP36" s="183"/>
+      <c r="AQ36" s="181"/>
+      <c r="AR36" s="182"/>
+      <c r="AS36" s="183"/>
     </row>
     <row r="37" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="156" t="s">
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="147" t="s">
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="146"/>
-      <c r="O37" s="145" t="s">
+      <c r="L37" s="161"/>
+      <c r="M37" s="161"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="165"/>
-      <c r="R37" s="166"/>
-      <c r="S37" s="167"/>
-      <c r="T37" s="165"/>
-      <c r="U37" s="166"/>
-      <c r="V37" s="167"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="182"/>
+      <c r="S37" s="183"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="182"/>
+      <c r="V37" s="183"/>
       <c r="W37" s="15"/>
       <c r="X37" s="220"/>
       <c r="Y37" s="221"/>
       <c r="Z37" s="221"/>
       <c r="AA37" s="222"/>
-      <c r="AB37" s="173"/>
-      <c r="AC37" s="174"/>
-      <c r="AD37" s="175"/>
-      <c r="AE37" s="169" t="s">
+      <c r="AB37" s="210"/>
+      <c r="AC37" s="211"/>
+      <c r="AD37" s="212"/>
+      <c r="AE37" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="AF37" s="169"/>
-      <c r="AG37" s="169"/>
-      <c r="AH37" s="160" t="s">
+      <c r="AF37" s="185"/>
+      <c r="AG37" s="185"/>
+      <c r="AH37" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="AI37" s="161"/>
-      <c r="AJ37" s="161"/>
-      <c r="AK37" s="162"/>
-      <c r="AL37" s="161" t="s">
+      <c r="AI37" s="177"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="178"/>
+      <c r="AL37" s="177" t="s">
         <v>155</v>
       </c>
-      <c r="AM37" s="162"/>
-      <c r="AN37" s="165"/>
-      <c r="AO37" s="166"/>
-      <c r="AP37" s="167"/>
-      <c r="AQ37" s="165"/>
-      <c r="AR37" s="166"/>
-      <c r="AS37" s="167"/>
+      <c r="AM37" s="178"/>
+      <c r="AN37" s="181"/>
+      <c r="AO37" s="182"/>
+      <c r="AP37" s="183"/>
+      <c r="AQ37" s="181"/>
+      <c r="AR37" s="182"/>
+      <c r="AS37" s="183"/>
     </row>
     <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="45">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="33">
         <v>17</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="43" t="s">
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="49" t="s">
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="165"/>
-      <c r="R38" s="166"/>
-      <c r="S38" s="167"/>
-      <c r="T38" s="165"/>
-      <c r="U38" s="166"/>
-      <c r="V38" s="167"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="182"/>
+      <c r="S38" s="183"/>
+      <c r="T38" s="181"/>
+      <c r="U38" s="182"/>
+      <c r="V38" s="183"/>
       <c r="W38" s="15"/>
       <c r="X38" s="220"/>
       <c r="Y38" s="221"/>
       <c r="Z38" s="221"/>
       <c r="AA38" s="222"/>
-      <c r="AB38" s="170" t="s">
+      <c r="AB38" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="AC38" s="171"/>
-      <c r="AD38" s="172"/>
+      <c r="AC38" s="208"/>
+      <c r="AD38" s="209"/>
       <c r="AE38" s="214" t="s">
         <v>3</v>
       </c>
       <c r="AF38" s="215"/>
       <c r="AG38" s="216"/>
-      <c r="AH38" s="126" t="s">
+      <c r="AH38" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="AI38" s="124"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="125"/>
-      <c r="AL38" s="124" t="s">
+      <c r="AI38" s="140"/>
+      <c r="AJ38" s="140"/>
+      <c r="AK38" s="141"/>
+      <c r="AL38" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="AM38" s="125"/>
-      <c r="AN38" s="123"/>
-      <c r="AO38" s="121"/>
-      <c r="AP38" s="122"/>
-      <c r="AQ38" s="121"/>
-      <c r="AR38" s="121"/>
-      <c r="AS38" s="122"/>
+      <c r="AM38" s="141"/>
+      <c r="AN38" s="139"/>
+      <c r="AO38" s="137"/>
+      <c r="AP38" s="138"/>
+      <c r="AQ38" s="137"/>
+      <c r="AR38" s="137"/>
+      <c r="AS38" s="138"/>
     </row>
     <row r="39" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="45">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="33">
         <v>18</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="43" t="s">
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="49" t="s">
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="165"/>
-      <c r="R39" s="166"/>
-      <c r="S39" s="167"/>
-      <c r="T39" s="165"/>
-      <c r="U39" s="166"/>
-      <c r="V39" s="167"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="182"/>
+      <c r="S39" s="183"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="182"/>
+      <c r="V39" s="183"/>
       <c r="W39" s="15"/>
       <c r="X39" s="223"/>
       <c r="Y39" s="224"/>
       <c r="Z39" s="224"/>
       <c r="AA39" s="225"/>
-      <c r="AB39" s="173"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="175"/>
-      <c r="AE39" s="169" t="s">
+      <c r="AB39" s="210"/>
+      <c r="AC39" s="211"/>
+      <c r="AD39" s="212"/>
+      <c r="AE39" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="AF39" s="169"/>
-      <c r="AG39" s="169"/>
-      <c r="AH39" s="126" t="s">
+      <c r="AF39" s="185"/>
+      <c r="AG39" s="185"/>
+      <c r="AH39" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="AI39" s="124"/>
-      <c r="AJ39" s="124"/>
-      <c r="AK39" s="125"/>
-      <c r="AL39" s="126" t="s">
+      <c r="AI39" s="140"/>
+      <c r="AJ39" s="140"/>
+      <c r="AK39" s="141"/>
+      <c r="AL39" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="AM39" s="125"/>
-      <c r="AN39" s="123"/>
-      <c r="AO39" s="121"/>
-      <c r="AP39" s="122"/>
-      <c r="AQ39" s="123"/>
-      <c r="AR39" s="121"/>
-      <c r="AS39" s="122"/>
+      <c r="AM39" s="141"/>
+      <c r="AN39" s="139"/>
+      <c r="AO39" s="137"/>
+      <c r="AP39" s="138"/>
+      <c r="AQ39" s="139"/>
+      <c r="AR39" s="137"/>
+      <c r="AS39" s="138"/>
     </row>
     <row r="40" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="48" t="s">
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42" t="s">
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="33" t="s">
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="31" t="s">
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="165"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="167"/>
-      <c r="T40" s="165"/>
-      <c r="U40" s="166"/>
-      <c r="V40" s="167"/>
-      <c r="W40" s="133" t="s">
+      <c r="P40" s="21"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="182"/>
+      <c r="S40" s="183"/>
+      <c r="T40" s="181"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="183"/>
+      <c r="W40" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="X40" s="134"/>
-      <c r="Y40" s="134"/>
-      <c r="Z40" s="134"/>
-      <c r="AA40" s="134"/>
-      <c r="AB40" s="134"/>
-      <c r="AC40" s="134"/>
-      <c r="AD40" s="134"/>
-      <c r="AE40" s="134"/>
-      <c r="AF40" s="134"/>
-      <c r="AG40" s="134"/>
-      <c r="AH40" s="134"/>
-      <c r="AI40" s="134"/>
-      <c r="AJ40" s="134"/>
-      <c r="AK40" s="134"/>
-      <c r="AL40" s="134"/>
-      <c r="AM40" s="134"/>
-      <c r="AN40" s="127" t="s">
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150"/>
+      <c r="AC40" s="150"/>
+      <c r="AD40" s="150"/>
+      <c r="AE40" s="150"/>
+      <c r="AF40" s="150"/>
+      <c r="AG40" s="150"/>
+      <c r="AH40" s="150"/>
+      <c r="AI40" s="150"/>
+      <c r="AJ40" s="150"/>
+      <c r="AK40" s="150"/>
+      <c r="AL40" s="150"/>
+      <c r="AM40" s="150"/>
+      <c r="AN40" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="AO40" s="128"/>
-      <c r="AP40" s="128"/>
-      <c r="AQ40" s="128"/>
-      <c r="AR40" s="128"/>
-      <c r="AS40" s="129"/>
+      <c r="AO40" s="144"/>
+      <c r="AP40" s="144"/>
+      <c r="AQ40" s="144"/>
+      <c r="AR40" s="144"/>
+      <c r="AS40" s="145"/>
     </row>
     <row r="41" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42" t="s">
+      <c r="A41" s="131"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="33" t="s">
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="31" t="s">
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="165"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="167"/>
-      <c r="T41" s="254"/>
-      <c r="U41" s="255"/>
-      <c r="V41" s="256"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="136"/>
-      <c r="Y41" s="136"/>
-      <c r="Z41" s="136"/>
-      <c r="AA41" s="136"/>
-      <c r="AB41" s="136"/>
-      <c r="AC41" s="136"/>
-      <c r="AD41" s="136"/>
-      <c r="AE41" s="136"/>
-      <c r="AF41" s="136"/>
-      <c r="AG41" s="136"/>
-      <c r="AH41" s="136"/>
-      <c r="AI41" s="136"/>
-      <c r="AJ41" s="136"/>
-      <c r="AK41" s="136"/>
-      <c r="AL41" s="136"/>
-      <c r="AM41" s="136"/>
-      <c r="AN41" s="130"/>
-      <c r="AO41" s="131"/>
-      <c r="AP41" s="131"/>
-      <c r="AQ41" s="131"/>
-      <c r="AR41" s="131"/>
-      <c r="AS41" s="132"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="151"/>
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
+      <c r="AC41" s="152"/>
+      <c r="AD41" s="152"/>
+      <c r="AE41" s="152"/>
+      <c r="AF41" s="152"/>
+      <c r="AG41" s="152"/>
+      <c r="AH41" s="152"/>
+      <c r="AI41" s="152"/>
+      <c r="AJ41" s="152"/>
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="152"/>
+      <c r="AM41" s="152"/>
+      <c r="AN41" s="146"/>
+      <c r="AO41" s="147"/>
+      <c r="AP41" s="147"/>
+      <c r="AQ41" s="147"/>
+      <c r="AR41" s="147"/>
+      <c r="AS41" s="148"/>
     </row>
     <row r="42" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="40" t="s">
+      <c r="A42" s="131"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42" t="s">
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="33" t="s">
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="31" t="s">
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="165"/>
-      <c r="R42" s="166"/>
-      <c r="S42" s="167"/>
-      <c r="T42" s="254"/>
-      <c r="U42" s="255"/>
-      <c r="V42" s="256"/>
-      <c r="W42" s="135"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="136"/>
-      <c r="AA42" s="136"/>
-      <c r="AB42" s="136"/>
-      <c r="AC42" s="136"/>
-      <c r="AD42" s="136"/>
-      <c r="AE42" s="136"/>
-      <c r="AF42" s="136"/>
-      <c r="AG42" s="136"/>
-      <c r="AH42" s="136"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="136"/>
-      <c r="AK42" s="136"/>
-      <c r="AL42" s="136"/>
-      <c r="AM42" s="136"/>
-      <c r="AN42" s="130"/>
-      <c r="AO42" s="131"/>
-      <c r="AP42" s="131"/>
-      <c r="AQ42" s="131"/>
-      <c r="AR42" s="131"/>
-      <c r="AS42" s="132"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="181"/>
+      <c r="R42" s="182"/>
+      <c r="S42" s="183"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="151"/>
+      <c r="X42" s="152"/>
+      <c r="Y42" s="152"/>
+      <c r="Z42" s="152"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="152"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="152"/>
+      <c r="AE42" s="152"/>
+      <c r="AF42" s="152"/>
+      <c r="AG42" s="152"/>
+      <c r="AH42" s="152"/>
+      <c r="AI42" s="152"/>
+      <c r="AJ42" s="152"/>
+      <c r="AK42" s="152"/>
+      <c r="AL42" s="152"/>
+      <c r="AM42" s="152"/>
+      <c r="AN42" s="146"/>
+      <c r="AO42" s="147"/>
+      <c r="AP42" s="147"/>
+      <c r="AQ42" s="147"/>
+      <c r="AR42" s="147"/>
+      <c r="AS42" s="148"/>
     </row>
     <row r="43" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42" t="s">
+      <c r="A43" s="134"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="33" t="s">
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="31" t="s">
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="165"/>
-      <c r="R43" s="166"/>
-      <c r="S43" s="167"/>
-      <c r="T43" s="165"/>
-      <c r="U43" s="166"/>
-      <c r="V43" s="167"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="136"/>
-      <c r="AC43" s="136"/>
-      <c r="AD43" s="136"/>
-      <c r="AE43" s="136"/>
-      <c r="AF43" s="136"/>
-      <c r="AG43" s="136"/>
-      <c r="AH43" s="136"/>
-      <c r="AI43" s="136"/>
-      <c r="AJ43" s="136"/>
-      <c r="AK43" s="136"/>
-      <c r="AL43" s="136"/>
-      <c r="AM43" s="136"/>
-      <c r="AN43" s="130"/>
-      <c r="AO43" s="131"/>
-      <c r="AP43" s="131"/>
-      <c r="AQ43" s="131"/>
-      <c r="AR43" s="131"/>
-      <c r="AS43" s="132"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="181"/>
+      <c r="R43" s="182"/>
+      <c r="S43" s="183"/>
+      <c r="T43" s="181"/>
+      <c r="U43" s="182"/>
+      <c r="V43" s="183"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="152"/>
+      <c r="AE43" s="152"/>
+      <c r="AF43" s="152"/>
+      <c r="AG43" s="152"/>
+      <c r="AH43" s="152"/>
+      <c r="AI43" s="152"/>
+      <c r="AJ43" s="152"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="152"/>
+      <c r="AM43" s="152"/>
+      <c r="AN43" s="146"/>
+      <c r="AO43" s="147"/>
+      <c r="AP43" s="147"/>
+      <c r="AQ43" s="147"/>
+      <c r="AR43" s="147"/>
+      <c r="AS43" s="148"/>
     </row>
     <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="40" t="s">
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42" t="s">
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="33" t="s">
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="31" t="s">
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="165"/>
-      <c r="R44" s="166"/>
-      <c r="S44" s="167"/>
-      <c r="T44" s="165"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="167"/>
-      <c r="W44" s="135"/>
-      <c r="X44" s="136"/>
-      <c r="Y44" s="136"/>
-      <c r="Z44" s="136"/>
-      <c r="AA44" s="136"/>
-      <c r="AB44" s="136"/>
-      <c r="AC44" s="136"/>
-      <c r="AD44" s="136"/>
-      <c r="AE44" s="136"/>
-      <c r="AF44" s="136"/>
-      <c r="AG44" s="136"/>
-      <c r="AH44" s="136"/>
-      <c r="AI44" s="136"/>
-      <c r="AJ44" s="136"/>
-      <c r="AK44" s="136"/>
-      <c r="AL44" s="136"/>
-      <c r="AM44" s="136"/>
-      <c r="AN44" s="130"/>
-      <c r="AO44" s="131"/>
-      <c r="AP44" s="131"/>
-      <c r="AQ44" s="131"/>
-      <c r="AR44" s="131"/>
-      <c r="AS44" s="132"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="181"/>
+      <c r="R44" s="182"/>
+      <c r="S44" s="183"/>
+      <c r="T44" s="181"/>
+      <c r="U44" s="182"/>
+      <c r="V44" s="183"/>
+      <c r="W44" s="151"/>
+      <c r="X44" s="152"/>
+      <c r="Y44" s="152"/>
+      <c r="Z44" s="152"/>
+      <c r="AA44" s="152"/>
+      <c r="AB44" s="152"/>
+      <c r="AC44" s="152"/>
+      <c r="AD44" s="152"/>
+      <c r="AE44" s="152"/>
+      <c r="AF44" s="152"/>
+      <c r="AG44" s="152"/>
+      <c r="AH44" s="152"/>
+      <c r="AI44" s="152"/>
+      <c r="AJ44" s="152"/>
+      <c r="AK44" s="152"/>
+      <c r="AL44" s="152"/>
+      <c r="AM44" s="152"/>
+      <c r="AN44" s="146"/>
+      <c r="AO44" s="147"/>
+      <c r="AP44" s="147"/>
+      <c r="AQ44" s="147"/>
+      <c r="AR44" s="147"/>
+      <c r="AS44" s="148"/>
     </row>
     <row r="45" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42" t="s">
+      <c r="A45" s="125"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="33" t="s">
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="31" t="s">
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="254"/>
-      <c r="R45" s="255"/>
-      <c r="S45" s="256"/>
-      <c r="T45" s="165"/>
-      <c r="U45" s="166"/>
-      <c r="V45" s="167"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="136"/>
-      <c r="Y45" s="136"/>
-      <c r="Z45" s="136"/>
-      <c r="AA45" s="136"/>
-      <c r="AB45" s="136"/>
-      <c r="AC45" s="136"/>
-      <c r="AD45" s="136"/>
-      <c r="AE45" s="136"/>
-      <c r="AF45" s="136"/>
-      <c r="AG45" s="136"/>
-      <c r="AH45" s="136"/>
-      <c r="AI45" s="136"/>
-      <c r="AJ45" s="136"/>
-      <c r="AK45" s="136"/>
-      <c r="AL45" s="136"/>
-      <c r="AM45" s="136"/>
-      <c r="AN45" s="130"/>
-      <c r="AO45" s="131"/>
-      <c r="AP45" s="131"/>
-      <c r="AQ45" s="131"/>
-      <c r="AR45" s="131"/>
-      <c r="AS45" s="132"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="181"/>
+      <c r="U45" s="182"/>
+      <c r="V45" s="183"/>
+      <c r="W45" s="151"/>
+      <c r="X45" s="152"/>
+      <c r="Y45" s="152"/>
+      <c r="Z45" s="152"/>
+      <c r="AA45" s="152"/>
+      <c r="AB45" s="152"/>
+      <c r="AC45" s="152"/>
+      <c r="AD45" s="152"/>
+      <c r="AE45" s="152"/>
+      <c r="AF45" s="152"/>
+      <c r="AG45" s="152"/>
+      <c r="AH45" s="152"/>
+      <c r="AI45" s="152"/>
+      <c r="AJ45" s="152"/>
+      <c r="AK45" s="152"/>
+      <c r="AL45" s="152"/>
+      <c r="AM45" s="152"/>
+      <c r="AN45" s="146"/>
+      <c r="AO45" s="147"/>
+      <c r="AP45" s="147"/>
+      <c r="AQ45" s="147"/>
+      <c r="AR45" s="147"/>
+      <c r="AS45" s="148"/>
     </row>
     <row r="46" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="226" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="84" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="228"/>
@@ -5942,17 +6336,17 @@
       <c r="I46" s="228"/>
       <c r="J46" s="228"/>
       <c r="K46" s="229"/>
-      <c r="L46" s="95" t="s">
+      <c r="L46" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95" t="s">
+      <c r="M46" s="83"/>
+      <c r="N46" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
       <c r="S46" s="4"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
@@ -5993,13 +6387,13 @@
       <c r="I47" s="231"/>
       <c r="J47" s="231"/>
       <c r="K47" s="232"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="115"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
       <c r="S47" s="4"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
@@ -6029,30 +6423,30 @@
       <c r="AS47" s="5"/>
     </row>
     <row r="48" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="113">
+      <c r="A48" s="99">
         <v>1</v>
       </c>
-      <c r="B48" s="194" t="s">
+      <c r="B48" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="195"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="195"/>
-      <c r="H48" s="88" t="s">
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="64"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="52"/>
       <c r="S48" s="4"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -6082,24 +6476,24 @@
       <c r="AS48" s="5"/>
     </row>
     <row r="49" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
-      <c r="B49" s="197"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="69"/>
-      <c r="R49" s="70"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="58"/>
       <c r="S49" s="4"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
@@ -6129,30 +6523,30 @@
       <c r="AS49" s="5"/>
     </row>
     <row r="50" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113">
+      <c r="A50" s="99">
         <v>2</v>
       </c>
-      <c r="B50" s="194" t="s">
+      <c r="B50" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="195"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="195"/>
-      <c r="H50" s="88" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="69"/>
-      <c r="R50" s="70"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="58"/>
       <c r="S50" s="4"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
@@ -6182,24 +6576,24 @@
       <c r="AS50" s="5"/>
     </row>
     <row r="51" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="197"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="198"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="70"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="58"/>
       <c r="S51" s="4"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -6229,30 +6623,30 @@
       <c r="AS51" s="5"/>
     </row>
     <row r="52" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="113">
+      <c r="A52" s="99">
         <v>3</v>
       </c>
-      <c r="B52" s="194" t="s">
+      <c r="B52" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="195"/>
-      <c r="D52" s="195"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="195"/>
-      <c r="G52" s="195"/>
-      <c r="H52" s="88" t="s">
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="70"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="58"/>
       <c r="S52" s="4"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
@@ -6282,24 +6676,24 @@
       <c r="AS52" s="5"/>
     </row>
     <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
-      <c r="B53" s="197"/>
-      <c r="C53" s="198"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="198"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="70"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="58"/>
       <c r="S53" s="4"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
@@ -6329,30 +6723,30 @@
       <c r="AS53" s="5"/>
     </row>
     <row r="54" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="113">
+      <c r="A54" s="99">
         <v>4</v>
       </c>
-      <c r="B54" s="194" t="s">
+      <c r="B54" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="195"/>
-      <c r="D54" s="195"/>
-      <c r="E54" s="195"/>
-      <c r="F54" s="195"/>
-      <c r="G54" s="195"/>
-      <c r="H54" s="88" t="s">
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="69"/>
-      <c r="R54" s="70"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="254"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="58"/>
       <c r="S54" s="4"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
@@ -6393,13 +6787,13 @@
       <c r="I55" s="246"/>
       <c r="J55" s="246"/>
       <c r="K55" s="247"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="69"/>
-      <c r="Q55" s="69"/>
-      <c r="R55" s="70"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="260"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="57"/>
+      <c r="R55" s="58"/>
       <c r="S55" s="4"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
@@ -6429,24 +6823,24 @@
       <c r="AS55" s="5"/>
     </row>
     <row r="56" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="114"/>
-      <c r="B56" s="197"/>
-      <c r="C56" s="198"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="198"/>
-      <c r="F56" s="198"/>
-      <c r="G56" s="198"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="66"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="255"/>
+      <c r="M56" s="256"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="54"/>
       <c r="S56" s="6"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -6479,7 +6873,7 @@
       <c r="A57" s="248" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B57" s="84" t="s">
         <v>90</v>
       </c>
       <c r="C57" s="228"/>
@@ -6493,17 +6887,17 @@
       <c r="I57" s="228"/>
       <c r="J57" s="228"/>
       <c r="K57" s="229"/>
-      <c r="L57" s="115" t="s">
+      <c r="L57" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="115"/>
-      <c r="N57" s="115" t="s">
+      <c r="M57" s="101"/>
+      <c r="N57" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="115"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="115"/>
-      <c r="R57" s="115"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
@@ -6544,13 +6938,13 @@
       <c r="I58" s="231"/>
       <c r="J58" s="231"/>
       <c r="K58" s="232"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="115"/>
-      <c r="N58" s="115"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="115"/>
-      <c r="R58" s="115"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
@@ -6580,30 +6974,30 @@
       <c r="AS58" s="5"/>
     </row>
     <row r="59" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="116">
+      <c r="A59" s="102">
         <v>1</v>
       </c>
-      <c r="B59" s="194" t="s">
+      <c r="B59" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="195"/>
-      <c r="D59" s="195"/>
-      <c r="E59" s="195"/>
-      <c r="F59" s="195"/>
-      <c r="G59" s="196"/>
-      <c r="H59" s="88" t="s">
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="203"/>
-      <c r="M59" s="203"/>
-      <c r="N59" s="204"/>
-      <c r="O59" s="205"/>
-      <c r="P59" s="205"/>
-      <c r="Q59" s="205"/>
-      <c r="R59" s="206"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="257"/>
+      <c r="M59" s="257"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="114"/>
+      <c r="Q59" s="114"/>
+      <c r="R59" s="115"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
@@ -6633,24 +7027,24 @@
       <c r="AS59" s="5"/>
     </row>
     <row r="60" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="117"/>
-      <c r="B60" s="197"/>
-      <c r="C60" s="198"/>
-      <c r="D60" s="198"/>
-      <c r="E60" s="198"/>
-      <c r="F60" s="198"/>
-      <c r="G60" s="199"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="203"/>
-      <c r="M60" s="203"/>
-      <c r="N60" s="207"/>
-      <c r="O60" s="208"/>
-      <c r="P60" s="208"/>
-      <c r="Q60" s="208"/>
-      <c r="R60" s="209"/>
+      <c r="A60" s="103"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="257"/>
+      <c r="M60" s="257"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="117"/>
+      <c r="P60" s="117"/>
+      <c r="Q60" s="117"/>
+      <c r="R60" s="118"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
@@ -6680,30 +7074,30 @@
       <c r="AS60" s="5"/>
     </row>
     <row r="61" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="116">
+      <c r="A61" s="102">
         <v>2</v>
       </c>
-      <c r="B61" s="194" t="s">
+      <c r="B61" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="195"/>
-      <c r="D61" s="195"/>
-      <c r="E61" s="195"/>
-      <c r="F61" s="195"/>
-      <c r="G61" s="196"/>
-      <c r="H61" s="88" t="s">
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="203"/>
-      <c r="M61" s="203"/>
-      <c r="N61" s="207"/>
-      <c r="O61" s="208"/>
-      <c r="P61" s="208"/>
-      <c r="Q61" s="208"/>
-      <c r="R61" s="209"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="257"/>
+      <c r="M61" s="257"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="117"/>
+      <c r="P61" s="117"/>
+      <c r="Q61" s="117"/>
+      <c r="R61" s="118"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -6733,24 +7127,24 @@
       <c r="AS61" s="5"/>
     </row>
     <row r="62" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="117"/>
-      <c r="B62" s="197"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="198"/>
-      <c r="G62" s="199"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="203"/>
-      <c r="M62" s="203"/>
-      <c r="N62" s="207"/>
-      <c r="O62" s="208"/>
-      <c r="P62" s="208"/>
-      <c r="Q62" s="208"/>
-      <c r="R62" s="209"/>
+      <c r="A62" s="103"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="257"/>
+      <c r="M62" s="257"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="117"/>
+      <c r="P62" s="117"/>
+      <c r="Q62" s="117"/>
+      <c r="R62" s="118"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
@@ -6780,30 +7174,30 @@
       <c r="AS62" s="5"/>
     </row>
     <row r="63" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="116">
+      <c r="A63" s="102">
         <v>3</v>
       </c>
-      <c r="B63" s="194" t="s">
+      <c r="B63" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="195"/>
-      <c r="D63" s="195"/>
-      <c r="E63" s="195"/>
-      <c r="F63" s="195"/>
-      <c r="G63" s="196"/>
-      <c r="H63" s="88" t="s">
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="203"/>
-      <c r="M63" s="203"/>
-      <c r="N63" s="207"/>
-      <c r="O63" s="208"/>
-      <c r="P63" s="208"/>
-      <c r="Q63" s="208"/>
-      <c r="R63" s="209"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="257"/>
+      <c r="M63" s="257"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="117"/>
+      <c r="P63" s="117"/>
+      <c r="Q63" s="117"/>
+      <c r="R63" s="118"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -6833,24 +7227,24 @@
       <c r="AS63" s="5"/>
     </row>
     <row r="64" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="117"/>
-      <c r="B64" s="197"/>
-      <c r="C64" s="198"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="198"/>
-      <c r="F64" s="198"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="203"/>
-      <c r="M64" s="203"/>
-      <c r="N64" s="207"/>
-      <c r="O64" s="208"/>
-      <c r="P64" s="208"/>
-      <c r="Q64" s="208"/>
-      <c r="R64" s="209"/>
+      <c r="A64" s="103"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="257"/>
+      <c r="M64" s="257"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="117"/>
+      <c r="P64" s="117"/>
+      <c r="Q64" s="117"/>
+      <c r="R64" s="118"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
@@ -6880,30 +7274,30 @@
       <c r="AS64" s="5"/>
     </row>
     <row r="65" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="113">
+      <c r="A65" s="99">
         <v>4</v>
       </c>
-      <c r="B65" s="194" t="s">
+      <c r="B65" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="195"/>
-      <c r="E65" s="195"/>
-      <c r="F65" s="195"/>
-      <c r="G65" s="196"/>
-      <c r="H65" s="88" t="s">
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="204"/>
-      <c r="M65" s="206"/>
-      <c r="N65" s="207"/>
-      <c r="O65" s="208"/>
-      <c r="P65" s="208"/>
-      <c r="Q65" s="208"/>
-      <c r="R65" s="209"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="187"/>
+      <c r="M65" s="189"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="117"/>
+      <c r="P65" s="117"/>
+      <c r="Q65" s="117"/>
+      <c r="R65" s="118"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
@@ -6933,24 +7327,24 @@
       <c r="AS65" s="5"/>
     </row>
     <row r="66" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="114"/>
-      <c r="B66" s="197"/>
-      <c r="C66" s="198"/>
-      <c r="D66" s="198"/>
-      <c r="E66" s="198"/>
-      <c r="F66" s="198"/>
-      <c r="G66" s="199"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="210"/>
-      <c r="M66" s="212"/>
-      <c r="N66" s="207"/>
-      <c r="O66" s="208"/>
-      <c r="P66" s="208"/>
-      <c r="Q66" s="208"/>
-      <c r="R66" s="209"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="258"/>
+      <c r="M66" s="259"/>
+      <c r="N66" s="116"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="118"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
@@ -6980,30 +7374,30 @@
       <c r="AS66" s="5"/>
     </row>
     <row r="67" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="116">
+      <c r="A67" s="102">
         <v>5</v>
       </c>
-      <c r="B67" s="194" t="s">
+      <c r="B67" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="195"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="195"/>
-      <c r="G67" s="196"/>
-      <c r="H67" s="88" t="s">
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="203"/>
-      <c r="M67" s="203"/>
-      <c r="N67" s="207"/>
-      <c r="O67" s="208"/>
-      <c r="P67" s="208"/>
-      <c r="Q67" s="208"/>
-      <c r="R67" s="209"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="257"/>
+      <c r="M67" s="257"/>
+      <c r="N67" s="116"/>
+      <c r="O67" s="117"/>
+      <c r="P67" s="117"/>
+      <c r="Q67" s="117"/>
+      <c r="R67" s="118"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
@@ -7033,24 +7427,24 @@
       <c r="AS67" s="5"/>
     </row>
     <row r="68" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="117"/>
-      <c r="B68" s="197"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="198"/>
-      <c r="F68" s="198"/>
-      <c r="G68" s="199"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="203"/>
-      <c r="M68" s="203"/>
-      <c r="N68" s="210"/>
-      <c r="O68" s="211"/>
-      <c r="P68" s="211"/>
-      <c r="Q68" s="211"/>
-      <c r="R68" s="212"/>
+      <c r="A68" s="103"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="111"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="257"/>
+      <c r="M68" s="257"/>
+      <c r="N68" s="119"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="120"/>
+      <c r="Q68" s="120"/>
+      <c r="R68" s="121"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
@@ -7100,41 +7494,41 @@
       <c r="P69" s="235"/>
       <c r="Q69" s="235"/>
       <c r="R69" s="236"/>
-      <c r="S69" s="118" t="s">
+      <c r="S69" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="T69" s="119"/>
-      <c r="U69" s="119"/>
-      <c r="V69" s="119"/>
-      <c r="W69" s="119"/>
-      <c r="X69" s="119"/>
-      <c r="Y69" s="119"/>
-      <c r="Z69" s="119"/>
-      <c r="AA69" s="119"/>
-      <c r="AB69" s="119"/>
-      <c r="AC69" s="119"/>
-      <c r="AD69" s="119"/>
-      <c r="AE69" s="119"/>
-      <c r="AF69" s="119"/>
-      <c r="AG69" s="119"/>
-      <c r="AH69" s="119"/>
-      <c r="AI69" s="119"/>
-      <c r="AJ69" s="119"/>
-      <c r="AK69" s="119"/>
-      <c r="AL69" s="119"/>
-      <c r="AM69" s="119"/>
-      <c r="AN69" s="119"/>
-      <c r="AO69" s="119"/>
-      <c r="AP69" s="119"/>
-      <c r="AQ69" s="119"/>
-      <c r="AR69" s="119"/>
-      <c r="AS69" s="120"/>
+      <c r="T69" s="105"/>
+      <c r="U69" s="105"/>
+      <c r="V69" s="105"/>
+      <c r="W69" s="105"/>
+      <c r="X69" s="105"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="105"/>
+      <c r="AA69" s="105"/>
+      <c r="AB69" s="105"/>
+      <c r="AC69" s="105"/>
+      <c r="AD69" s="105"/>
+      <c r="AE69" s="105"/>
+      <c r="AF69" s="105"/>
+      <c r="AG69" s="105"/>
+      <c r="AH69" s="105"/>
+      <c r="AI69" s="105"/>
+      <c r="AJ69" s="105"/>
+      <c r="AK69" s="105"/>
+      <c r="AL69" s="105"/>
+      <c r="AM69" s="105"/>
+      <c r="AN69" s="105"/>
+      <c r="AO69" s="105"/>
+      <c r="AP69" s="105"/>
+      <c r="AQ69" s="105"/>
+      <c r="AR69" s="105"/>
+      <c r="AS69" s="106"/>
     </row>
     <row r="70" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="96" t="s">
+      <c r="B70" s="84" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="228"/>
@@ -7148,17 +7542,17 @@
       <c r="I70" s="228"/>
       <c r="J70" s="228"/>
       <c r="K70" s="229"/>
-      <c r="L70" s="82" t="s">
+      <c r="L70" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M70" s="83"/>
-      <c r="N70" s="82" t="s">
+      <c r="M70" s="71"/>
+      <c r="N70" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O70" s="86"/>
-      <c r="P70" s="86"/>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="83"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="71"/>
       <c r="S70" s="2"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
@@ -7199,13 +7593,13 @@
       <c r="I71" s="231"/>
       <c r="J71" s="231"/>
       <c r="K71" s="232"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="85"/>
+      <c r="L71" s="72"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="75"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="73"/>
       <c r="S71" s="4"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
@@ -7235,30 +7629,30 @@
       <c r="AS71" s="5"/>
     </row>
     <row r="72" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="60">
+      <c r="A72" s="48">
         <v>1</v>
       </c>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="88" t="s">
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="254"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
       <c r="S72" s="4"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
@@ -7288,28 +7682,28 @@
       <c r="AS72" s="5"/>
     </row>
     <row r="73" spans="1:45" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="61"/>
-      <c r="B73" s="108" t="s">
+      <c r="A73" s="49"/>
+      <c r="B73" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="110"/>
-      <c r="H73" s="105" t="s">
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="112"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="184"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
       <c r="S73" s="4"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
@@ -7339,30 +7733,30 @@
       <c r="AS73" s="5"/>
     </row>
     <row r="74" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="60">
+      <c r="A74" s="48">
         <v>2</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="252"/>
-      <c r="H74" s="88" t="s">
+      <c r="H74" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="90"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="59"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="254"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
       <c r="S74" s="4"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
@@ -7392,24 +7786,24 @@
       <c r="AS74" s="5"/>
     </row>
     <row r="75" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="61"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
       <c r="G75" s="253"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="93"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="66"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="255"/>
+      <c r="M75" s="256"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
       <c r="S75" s="4"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
@@ -7439,30 +7833,30 @@
       <c r="AS75" s="5"/>
     </row>
     <row r="76" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="62">
+      <c r="A76" s="50">
         <v>3</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="252"/>
-      <c r="H76" s="88" t="s">
+      <c r="H76" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
-      <c r="K76" s="90"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="59"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
       <c r="S76" s="4"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
@@ -7492,24 +7886,24 @@
       <c r="AS76" s="5"/>
     </row>
     <row r="77" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
       <c r="G77" s="253"/>
-      <c r="H77" s="91"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="80"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
       <c r="S77" s="4"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
@@ -7539,30 +7933,30 @@
       <c r="AS77" s="5"/>
     </row>
     <row r="78" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="62">
+      <c r="A78" s="50">
         <v>4</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="73"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
       <c r="G78" s="252"/>
-      <c r="H78" s="88" t="s">
+      <c r="H78" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="90"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
       <c r="S78" s="4"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
@@ -7592,24 +7986,24 @@
       <c r="AS78" s="5"/>
     </row>
     <row r="79" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
       <c r="G79" s="253"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="93"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="80"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
       <c r="S79" s="4"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
@@ -7639,30 +8033,30 @@
       <c r="AS79" s="5"/>
     </row>
     <row r="80" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="62">
+      <c r="A80" s="50">
         <v>5</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="88" t="s">
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
       <c r="S80" s="4"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
@@ -7692,24 +8086,24 @@
       <c r="AS80" s="5"/>
     </row>
     <row r="81" spans="1:45" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="62"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="75"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="92"/>
-      <c r="K81" s="93"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
       <c r="S81" s="4"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
@@ -7739,30 +8133,30 @@
       <c r="AS81" s="5"/>
     </row>
     <row r="82" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="62">
+      <c r="A82" s="50">
         <v>6</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="88" t="s">
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
       <c r="S82" s="4"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
@@ -7792,24 +8186,24 @@
       <c r="AS82" s="5"/>
     </row>
     <row r="83" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
-      <c r="K83" s="93"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
       <c r="S83" s="4"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
@@ -7839,30 +8233,30 @@
       <c r="AS83" s="5"/>
     </row>
     <row r="84" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="62">
+      <c r="A84" s="50">
         <v>7</v>
       </c>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="88" t="s">
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="90"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
       <c r="S84" s="4"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
@@ -7892,24 +8286,24 @@
       <c r="AS84" s="5"/>
     </row>
     <row r="85" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="75"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
-      <c r="K85" s="93"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
       <c r="S85" s="4"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
@@ -7939,30 +8333,32 @@
       <c r="AS85" s="5"/>
     </row>
     <row r="86" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="60">
+      <c r="A86" s="48">
         <v>8</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="76" t="s">
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M86" s="254"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
       <c r="S86" s="4"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
@@ -7992,24 +8388,24 @@
       <c r="AS86" s="5"/>
     </row>
     <row r="87" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="61"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="66"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="255"/>
+      <c r="M87" s="256"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
       <c r="S87" s="4"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
@@ -8042,7 +8438,7 @@
       <c r="A88" s="248" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="96" t="s">
+      <c r="B88" s="84" t="s">
         <v>96</v>
       </c>
       <c r="C88" s="228"/>
@@ -8056,17 +8452,17 @@
       <c r="I88" s="228"/>
       <c r="J88" s="228"/>
       <c r="K88" s="229"/>
-      <c r="L88" s="82" t="s">
+      <c r="L88" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M88" s="83"/>
-      <c r="N88" s="82" t="s">
+      <c r="M88" s="71"/>
+      <c r="N88" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O88" s="86"/>
-      <c r="P88" s="86"/>
-      <c r="Q88" s="86"/>
-      <c r="R88" s="83"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="71"/>
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
@@ -8107,13 +8503,13 @@
       <c r="I89" s="231"/>
       <c r="J89" s="231"/>
       <c r="K89" s="232"/>
-      <c r="L89" s="84"/>
-      <c r="M89" s="85"/>
-      <c r="N89" s="84"/>
-      <c r="O89" s="87"/>
-      <c r="P89" s="87"/>
-      <c r="Q89" s="87"/>
-      <c r="R89" s="85"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="72"/>
+      <c r="O89" s="75"/>
+      <c r="P89" s="75"/>
+      <c r="Q89" s="75"/>
+      <c r="R89" s="73"/>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
@@ -8143,30 +8539,30 @@
       <c r="AS89" s="5"/>
     </row>
     <row r="90" spans="1:45" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="62">
+      <c r="A90" s="50">
         <v>1</v>
       </c>
-      <c r="B90" s="102" t="s">
+      <c r="B90" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="104"/>
-      <c r="H90" s="105" t="s">
+      <c r="C90" s="91"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="I90" s="106"/>
-      <c r="J90" s="106"/>
-      <c r="K90" s="107"/>
-      <c r="L90" s="111"/>
-      <c r="M90" s="112"/>
-      <c r="N90" s="63"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="67"/>
-      <c r="R90" s="64"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="95"/>
+      <c r="L90" s="184"/>
+      <c r="M90" s="158"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="55"/>
+      <c r="Q90" s="55"/>
+      <c r="R90" s="52"/>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
@@ -8196,28 +8592,28 @@
       <c r="AS90" s="5"/>
     </row>
     <row r="91" spans="1:45" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
-      <c r="B91" s="108" t="s">
+      <c r="A91" s="50"/>
+      <c r="B91" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="105" t="s">
+      <c r="C91" s="97"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="97"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="107"/>
-      <c r="L91" s="111"/>
-      <c r="M91" s="112"/>
-      <c r="N91" s="68"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="69"/>
-      <c r="Q91" s="69"/>
-      <c r="R91" s="70"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="95"/>
+      <c r="L91" s="184"/>
+      <c r="M91" s="158"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="58"/>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
@@ -8247,30 +8643,30 @@
       <c r="AS91" s="5"/>
     </row>
     <row r="92" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="62">
+      <c r="A92" s="50">
         <v>2</v>
       </c>
-      <c r="B92" s="72" t="s">
+      <c r="B92" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="73"/>
-      <c r="H92" s="88" t="s">
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
-      <c r="K92" s="90"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="68"/>
-      <c r="O92" s="69"/>
-      <c r="P92" s="69"/>
-      <c r="Q92" s="69"/>
-      <c r="R92" s="70"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="57"/>
+      <c r="Q92" s="57"/>
+      <c r="R92" s="58"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
@@ -8300,24 +8696,24 @@
       <c r="AS92" s="5"/>
     </row>
     <row r="93" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="93"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="68"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="69"/>
-      <c r="Q93" s="69"/>
-      <c r="R93" s="70"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="81"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="57"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="58"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
@@ -8347,30 +8743,30 @@
       <c r="AS93" s="5"/>
     </row>
     <row r="94" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="62">
+      <c r="A94" s="50">
         <v>3</v>
       </c>
-      <c r="B94" s="72" t="s">
+      <c r="B94" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="88" t="s">
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="90"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="68"/>
-      <c r="O94" s="69"/>
-      <c r="P94" s="69"/>
-      <c r="Q94" s="69"/>
-      <c r="R94" s="70"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="78"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="57"/>
+      <c r="P94" s="57"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="58"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
@@ -8400,24 +8796,24 @@
       <c r="AS94" s="5"/>
     </row>
     <row r="95" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="75"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="93"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="68"/>
-      <c r="O95" s="69"/>
-      <c r="P95" s="69"/>
-      <c r="Q95" s="69"/>
-      <c r="R95" s="70"/>
+      <c r="A95" s="50"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="80"/>
+      <c r="J95" s="80"/>
+      <c r="K95" s="81"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="50"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="57"/>
+      <c r="P95" s="57"/>
+      <c r="Q95" s="57"/>
+      <c r="R95" s="58"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
@@ -8447,30 +8843,30 @@
       <c r="AS95" s="5"/>
     </row>
     <row r="96" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="62">
+      <c r="A96" s="50">
         <v>4</v>
       </c>
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="88" t="s">
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="90"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="68"/>
-      <c r="O96" s="69"/>
-      <c r="P96" s="69"/>
-      <c r="Q96" s="69"/>
-      <c r="R96" s="70"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="58"/>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
@@ -8500,24 +8896,24 @@
       <c r="AS96" s="5"/>
     </row>
     <row r="97" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="62"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="92"/>
-      <c r="K97" s="93"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="68"/>
-      <c r="O97" s="69"/>
-      <c r="P97" s="69"/>
-      <c r="Q97" s="69"/>
-      <c r="R97" s="70"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="79"/>
+      <c r="I97" s="80"/>
+      <c r="J97" s="80"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="57"/>
+      <c r="P97" s="57"/>
+      <c r="Q97" s="57"/>
+      <c r="R97" s="58"/>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
@@ -8547,30 +8943,30 @@
       <c r="AS97" s="5"/>
     </row>
     <row r="98" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="62">
+      <c r="A98" s="50">
         <v>5</v>
       </c>
-      <c r="B98" s="72" t="s">
+      <c r="B98" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="73"/>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="88" t="s">
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="90"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="68"/>
-      <c r="O98" s="69"/>
-      <c r="P98" s="69"/>
-      <c r="Q98" s="69"/>
-      <c r="R98" s="70"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="78"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="57"/>
+      <c r="P98" s="57"/>
+      <c r="Q98" s="57"/>
+      <c r="R98" s="58"/>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
@@ -8600,24 +8996,24 @@
       <c r="AS98" s="5"/>
     </row>
     <row r="99" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="62"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="75"/>
-      <c r="H99" s="91"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="92"/>
-      <c r="K99" s="93"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="68"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="70"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="80"/>
+      <c r="J99" s="80"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="57"/>
+      <c r="P99" s="57"/>
+      <c r="Q99" s="57"/>
+      <c r="R99" s="58"/>
       <c r="S99" s="8"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
@@ -8647,30 +9043,30 @@
       <c r="AS99" s="5"/>
     </row>
     <row r="100" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="62">
+      <c r="A100" s="50">
         <v>6</v>
       </c>
-      <c r="B100" s="72" t="s">
+      <c r="B100" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="88" t="s">
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="90"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="68"/>
-      <c r="O100" s="69"/>
-      <c r="P100" s="69"/>
-      <c r="Q100" s="69"/>
-      <c r="R100" s="70"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="57"/>
+      <c r="P100" s="57"/>
+      <c r="Q100" s="57"/>
+      <c r="R100" s="58"/>
       <c r="S100" s="8"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
@@ -8700,24 +9096,24 @@
       <c r="AS100" s="5"/>
     </row>
     <row r="101" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="62"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="75"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="75"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="92"/>
-      <c r="J101" s="92"/>
-      <c r="K101" s="93"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="68"/>
-      <c r="O101" s="69"/>
-      <c r="P101" s="69"/>
-      <c r="Q101" s="69"/>
-      <c r="R101" s="70"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="79"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="80"/>
+      <c r="K101" s="81"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="50"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="57"/>
+      <c r="P101" s="57"/>
+      <c r="Q101" s="57"/>
+      <c r="R101" s="58"/>
       <c r="S101" s="8"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
@@ -8747,30 +9143,30 @@
       <c r="AS101" s="5"/>
     </row>
     <row r="102" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="62">
+      <c r="A102" s="50">
         <v>7</v>
       </c>
-      <c r="B102" s="72" t="s">
+      <c r="B102" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="88" t="s">
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="90"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="69"/>
-      <c r="R102" s="70"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="78"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="57"/>
+      <c r="P102" s="57"/>
+      <c r="Q102" s="57"/>
+      <c r="R102" s="58"/>
       <c r="S102" s="8"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
@@ -8800,24 +9196,24 @@
       <c r="AS102" s="5"/>
     </row>
     <row r="103" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="62"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="75"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="75"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="93"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="71"/>
-      <c r="P103" s="71"/>
-      <c r="Q103" s="71"/>
-      <c r="R103" s="66"/>
+      <c r="A103" s="50"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="80"/>
+      <c r="K103" s="81"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="50"/>
+      <c r="N103" s="53"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="54"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
@@ -8847,34 +9243,34 @@
       <c r="AS103" s="7"/>
     </row>
     <row r="104" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="94" t="s">
+      <c r="A104" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="96" t="s">
+      <c r="B104" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="97"/>
-      <c r="G104" s="98"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="86"/>
       <c r="H104" s="233" t="s">
         <v>86</v>
       </c>
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="229"/>
-      <c r="L104" s="82" t="s">
+      <c r="L104" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M104" s="83"/>
-      <c r="N104" s="82" t="s">
+      <c r="M104" s="71"/>
+      <c r="N104" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O104" s="86"/>
-      <c r="P104" s="86"/>
-      <c r="Q104" s="86"/>
-      <c r="R104" s="83"/>
+      <c r="O104" s="74"/>
+      <c r="P104" s="74"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="71"/>
       <c r="S104" s="8"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
@@ -8904,24 +9300,24 @@
       <c r="AS104" s="5"/>
     </row>
     <row r="105" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="95"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="100"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="100"/>
-      <c r="G105" s="101"/>
+      <c r="A105" s="83"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="230"/>
       <c r="I105" s="231"/>
       <c r="J105" s="231"/>
       <c r="K105" s="232"/>
-      <c r="L105" s="84"/>
-      <c r="M105" s="85"/>
-      <c r="N105" s="84"/>
-      <c r="O105" s="87"/>
-      <c r="P105" s="87"/>
-      <c r="Q105" s="87"/>
-      <c r="R105" s="85"/>
+      <c r="L105" s="72"/>
+      <c r="M105" s="73"/>
+      <c r="N105" s="72"/>
+      <c r="O105" s="75"/>
+      <c r="P105" s="75"/>
+      <c r="Q105" s="75"/>
+      <c r="R105" s="73"/>
       <c r="S105" s="8"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
@@ -8951,30 +9347,32 @@
       <c r="AS105" s="5"/>
     </row>
     <row r="106" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="62">
+      <c r="A106" s="50">
         <v>1</v>
       </c>
-      <c r="B106" s="72" t="s">
+      <c r="B106" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="76" t="s">
+      <c r="C106" s="61"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="78"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="63"/>
-      <c r="O106" s="67"/>
-      <c r="P106" s="67"/>
-      <c r="Q106" s="67"/>
-      <c r="R106" s="64"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M106" s="254"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="55"/>
+      <c r="Q106" s="55"/>
+      <c r="R106" s="52"/>
       <c r="S106" s="8"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
@@ -9004,24 +9402,24 @@
       <c r="AS106" s="5"/>
     </row>
     <row r="107" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="62"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="75"/>
-      <c r="D107" s="75"/>
-      <c r="E107" s="75"/>
-      <c r="F107" s="75"/>
-      <c r="G107" s="75"/>
-      <c r="H107" s="79"/>
-      <c r="I107" s="80"/>
-      <c r="J107" s="80"/>
-      <c r="K107" s="81"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="68"/>
-      <c r="O107" s="69"/>
-      <c r="P107" s="69"/>
-      <c r="Q107" s="69"/>
-      <c r="R107" s="70"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="68"/>
+      <c r="J107" s="68"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="255"/>
+      <c r="M107" s="256"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="57"/>
+      <c r="P107" s="57"/>
+      <c r="Q107" s="57"/>
+      <c r="R107" s="58"/>
       <c r="S107" s="8"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
@@ -9051,30 +9449,32 @@
       <c r="AS107" s="5"/>
     </row>
     <row r="108" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="62">
+      <c r="A108" s="50">
         <v>2</v>
       </c>
-      <c r="B108" s="72" t="s">
+      <c r="B108" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="76" t="s">
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="78"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="68"/>
-      <c r="O108" s="69"/>
-      <c r="P108" s="69"/>
-      <c r="Q108" s="69"/>
-      <c r="R108" s="70"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M108" s="254"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="57"/>
+      <c r="P108" s="57"/>
+      <c r="Q108" s="57"/>
+      <c r="R108" s="58"/>
       <c r="S108" s="8"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
@@ -9104,24 +9504,24 @@
       <c r="AS108" s="5"/>
     </row>
     <row r="109" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="62"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="75"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="75"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="75"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="80"/>
-      <c r="J109" s="80"/>
-      <c r="K109" s="81"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="68"/>
-      <c r="O109" s="69"/>
-      <c r="P109" s="69"/>
-      <c r="Q109" s="69"/>
-      <c r="R109" s="70"/>
+      <c r="A109" s="50"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="68"/>
+      <c r="J109" s="68"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="255"/>
+      <c r="M109" s="256"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="57"/>
+      <c r="P109" s="57"/>
+      <c r="Q109" s="57"/>
+      <c r="R109" s="58"/>
       <c r="S109" s="8"/>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
@@ -9151,30 +9551,32 @@
       <c r="AS109" s="5"/>
     </row>
     <row r="110" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="62">
+      <c r="A110" s="50">
         <v>3</v>
       </c>
-      <c r="B110" s="72" t="s">
+      <c r="B110" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="73"/>
-      <c r="H110" s="76" t="s">
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="78"/>
-      <c r="L110" s="59"/>
-      <c r="M110" s="59"/>
-      <c r="N110" s="68"/>
-      <c r="O110" s="69"/>
-      <c r="P110" s="69"/>
-      <c r="Q110" s="69"/>
-      <c r="R110" s="70"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M110" s="254"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="57"/>
+      <c r="P110" s="57"/>
+      <c r="Q110" s="57"/>
+      <c r="R110" s="58"/>
       <c r="S110" s="8"/>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
@@ -9204,24 +9606,24 @@
       <c r="AS110" s="5"/>
     </row>
     <row r="111" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="62"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="75"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="75"/>
-      <c r="F111" s="75"/>
-      <c r="G111" s="75"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="80"/>
-      <c r="J111" s="80"/>
-      <c r="K111" s="81"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="68"/>
-      <c r="O111" s="69"/>
-      <c r="P111" s="69"/>
-      <c r="Q111" s="69"/>
-      <c r="R111" s="70"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="255"/>
+      <c r="M111" s="256"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="57"/>
+      <c r="P111" s="57"/>
+      <c r="Q111" s="57"/>
+      <c r="R111" s="58"/>
       <c r="S111" s="8"/>
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
@@ -9251,30 +9653,32 @@
       <c r="AS111" s="5"/>
     </row>
     <row r="112" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="62">
+      <c r="A112" s="50">
         <v>4</v>
       </c>
-      <c r="B112" s="72" t="s">
+      <c r="B112" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="73"/>
-      <c r="D112" s="73"/>
-      <c r="E112" s="73"/>
-      <c r="F112" s="73"/>
-      <c r="G112" s="73"/>
-      <c r="H112" s="76" t="s">
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="78"/>
-      <c r="L112" s="59"/>
-      <c r="M112" s="59"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="69"/>
-      <c r="P112" s="69"/>
-      <c r="Q112" s="69"/>
-      <c r="R112" s="70"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M112" s="254"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="57"/>
+      <c r="P112" s="57"/>
+      <c r="Q112" s="57"/>
+      <c r="R112" s="58"/>
       <c r="S112" s="8"/>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
@@ -9304,24 +9708,24 @@
       <c r="AS112" s="5"/>
     </row>
     <row r="113" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="62"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="75"/>
-      <c r="E113" s="75"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="75"/>
-      <c r="H113" s="79"/>
-      <c r="I113" s="80"/>
-      <c r="J113" s="80"/>
-      <c r="K113" s="81"/>
-      <c r="L113" s="59"/>
-      <c r="M113" s="59"/>
-      <c r="N113" s="68"/>
-      <c r="O113" s="69"/>
-      <c r="P113" s="69"/>
-      <c r="Q113" s="69"/>
-      <c r="R113" s="70"/>
+      <c r="A113" s="50"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="68"/>
+      <c r="J113" s="68"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="255"/>
+      <c r="M113" s="256"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="57"/>
+      <c r="P113" s="57"/>
+      <c r="Q113" s="57"/>
+      <c r="R113" s="58"/>
       <c r="S113" s="8"/>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
@@ -9351,30 +9755,32 @@
       <c r="AS113" s="5"/>
     </row>
     <row r="114" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="62">
+      <c r="A114" s="50">
         <v>5</v>
       </c>
-      <c r="B114" s="72" t="s">
+      <c r="B114" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C114" s="73"/>
-      <c r="D114" s="73"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="73"/>
-      <c r="H114" s="76" t="s">
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="78"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="69"/>
-      <c r="P114" s="69"/>
-      <c r="Q114" s="69"/>
-      <c r="R114" s="70"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M114" s="254"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="57"/>
+      <c r="P114" s="57"/>
+      <c r="Q114" s="57"/>
+      <c r="R114" s="58"/>
       <c r="S114" s="8"/>
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
@@ -9404,24 +9810,24 @@
       <c r="AS114" s="5"/>
     </row>
     <row r="115" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="62"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="75"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="75"/>
-      <c r="F115" s="75"/>
-      <c r="G115" s="75"/>
-      <c r="H115" s="79"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="80"/>
-      <c r="K115" s="81"/>
-      <c r="L115" s="59"/>
-      <c r="M115" s="59"/>
-      <c r="N115" s="68"/>
-      <c r="O115" s="69"/>
-      <c r="P115" s="69"/>
-      <c r="Q115" s="69"/>
-      <c r="R115" s="70"/>
+      <c r="A115" s="50"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="255"/>
+      <c r="M115" s="256"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="57"/>
+      <c r="P115" s="57"/>
+      <c r="Q115" s="57"/>
+      <c r="R115" s="58"/>
       <c r="S115" s="8"/>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
@@ -9451,30 +9857,32 @@
       <c r="AS115" s="5"/>
     </row>
     <row r="116" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="62">
+      <c r="A116" s="50">
         <v>6</v>
       </c>
-      <c r="B116" s="72" t="s">
+      <c r="B116" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="76" t="s">
+      <c r="C116" s="61"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="78"/>
-      <c r="L116" s="59"/>
-      <c r="M116" s="59"/>
-      <c r="N116" s="68"/>
-      <c r="O116" s="69"/>
-      <c r="P116" s="69"/>
-      <c r="Q116" s="69"/>
-      <c r="R116" s="70"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M116" s="254"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="57"/>
+      <c r="P116" s="57"/>
+      <c r="Q116" s="57"/>
+      <c r="R116" s="58"/>
       <c r="S116" s="8"/>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
@@ -9504,24 +9912,24 @@
       <c r="AS116" s="5"/>
     </row>
     <row r="117" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="75"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="80"/>
-      <c r="J117" s="80"/>
-      <c r="K117" s="81"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="59"/>
-      <c r="N117" s="68"/>
-      <c r="O117" s="69"/>
-      <c r="P117" s="69"/>
-      <c r="Q117" s="69"/>
-      <c r="R117" s="70"/>
+      <c r="A117" s="50"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="63"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="255"/>
+      <c r="M117" s="256"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="57"/>
+      <c r="P117" s="57"/>
+      <c r="Q117" s="57"/>
+      <c r="R117" s="58"/>
       <c r="S117" s="8"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
@@ -9551,30 +9959,32 @@
       <c r="AS117" s="5"/>
     </row>
     <row r="118" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="62">
+      <c r="A118" s="50">
         <v>7</v>
       </c>
-      <c r="B118" s="72" t="s">
+      <c r="B118" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
-      <c r="H118" s="76" t="s">
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="78"/>
-      <c r="L118" s="59"/>
-      <c r="M118" s="59"/>
-      <c r="N118" s="68"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="69"/>
-      <c r="Q118" s="69"/>
-      <c r="R118" s="70"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M118" s="254"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="57"/>
+      <c r="P118" s="57"/>
+      <c r="Q118" s="57"/>
+      <c r="R118" s="58"/>
       <c r="S118" s="8"/>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
@@ -9604,24 +10014,24 @@
       <c r="AS118" s="5"/>
     </row>
     <row r="119" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="62"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="75"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="75"/>
-      <c r="H119" s="79"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="80"/>
-      <c r="K119" s="81"/>
-      <c r="L119" s="59"/>
-      <c r="M119" s="59"/>
-      <c r="N119" s="68"/>
-      <c r="O119" s="69"/>
-      <c r="P119" s="69"/>
-      <c r="Q119" s="69"/>
-      <c r="R119" s="70"/>
+      <c r="A119" s="50"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="68"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="255"/>
+      <c r="M119" s="256"/>
+      <c r="N119" s="56"/>
+      <c r="O119" s="57"/>
+      <c r="P119" s="57"/>
+      <c r="Q119" s="57"/>
+      <c r="R119" s="58"/>
       <c r="S119" s="8"/>
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
@@ -9651,30 +10061,32 @@
       <c r="AS119" s="5"/>
     </row>
     <row r="120" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="62">
+      <c r="A120" s="50">
         <v>8</v>
       </c>
-      <c r="B120" s="72" t="s">
+      <c r="B120" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="76" t="s">
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="78"/>
-      <c r="L120" s="59"/>
-      <c r="M120" s="59"/>
-      <c r="N120" s="68"/>
-      <c r="O120" s="69"/>
-      <c r="P120" s="69"/>
-      <c r="Q120" s="69"/>
-      <c r="R120" s="70"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="66"/>
+      <c r="L120" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M120" s="254"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="57"/>
+      <c r="P120" s="57"/>
+      <c r="Q120" s="57"/>
+      <c r="R120" s="58"/>
       <c r="S120" s="8"/>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
@@ -9704,24 +10116,24 @@
       <c r="AS120" s="5"/>
     </row>
     <row r="121" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="79"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
-      <c r="K121" s="81"/>
-      <c r="L121" s="59"/>
-      <c r="M121" s="59"/>
-      <c r="N121" s="68"/>
-      <c r="O121" s="69"/>
-      <c r="P121" s="69"/>
-      <c r="Q121" s="69"/>
-      <c r="R121" s="70"/>
+      <c r="A121" s="50"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="68"/>
+      <c r="J121" s="68"/>
+      <c r="K121" s="69"/>
+      <c r="L121" s="255"/>
+      <c r="M121" s="256"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="57"/>
+      <c r="P121" s="57"/>
+      <c r="Q121" s="57"/>
+      <c r="R121" s="58"/>
       <c r="S121" s="8"/>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
@@ -9751,30 +10163,32 @@
       <c r="AS121" s="5"/>
     </row>
     <row r="122" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="62">
+      <c r="A122" s="50">
         <v>9</v>
       </c>
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="73"/>
-      <c r="D122" s="73"/>
-      <c r="E122" s="73"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="73"/>
-      <c r="H122" s="76" t="s">
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I122" s="77"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="78"/>
-      <c r="L122" s="59"/>
-      <c r="M122" s="59"/>
-      <c r="N122" s="68"/>
-      <c r="O122" s="69"/>
-      <c r="P122" s="69"/>
-      <c r="Q122" s="69"/>
-      <c r="R122" s="70"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="66"/>
+      <c r="L122" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M122" s="254"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="57"/>
+      <c r="P122" s="57"/>
+      <c r="Q122" s="57"/>
+      <c r="R122" s="58"/>
       <c r="S122" s="8"/>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
@@ -9804,24 +10218,24 @@
       <c r="AS122" s="5"/>
     </row>
     <row r="123" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="62"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="75"/>
-      <c r="E123" s="75"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="75"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="80"/>
-      <c r="J123" s="80"/>
-      <c r="K123" s="81"/>
-      <c r="L123" s="59"/>
-      <c r="M123" s="59"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="69"/>
-      <c r="P123" s="69"/>
-      <c r="Q123" s="69"/>
-      <c r="R123" s="70"/>
+      <c r="A123" s="50"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="63"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="63"/>
+      <c r="F123" s="63"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="68"/>
+      <c r="J123" s="68"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="255"/>
+      <c r="M123" s="256"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="57"/>
+      <c r="P123" s="57"/>
+      <c r="Q123" s="57"/>
+      <c r="R123" s="58"/>
       <c r="S123" s="8"/>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
@@ -9851,30 +10265,32 @@
       <c r="AS123" s="5"/>
     </row>
     <row r="124" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="57">
+      <c r="A124" s="45">
         <v>10</v>
       </c>
-      <c r="B124" s="72" t="s">
+      <c r="B124" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="73"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="76" t="s">
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="78"/>
-      <c r="L124" s="59"/>
-      <c r="M124" s="59"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="69"/>
-      <c r="P124" s="69"/>
-      <c r="Q124" s="69"/>
-      <c r="R124" s="70"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M124" s="254"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="57"/>
+      <c r="P124" s="57"/>
+      <c r="Q124" s="57"/>
+      <c r="R124" s="58"/>
       <c r="S124" s="8"/>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
@@ -9904,24 +10320,24 @@
       <c r="AS124" s="5"/>
     </row>
     <row r="125" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="58"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="75"/>
-      <c r="E125" s="75"/>
-      <c r="F125" s="75"/>
-      <c r="G125" s="75"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="80"/>
-      <c r="J125" s="80"/>
-      <c r="K125" s="81"/>
-      <c r="L125" s="59"/>
-      <c r="M125" s="59"/>
-      <c r="N125" s="68"/>
-      <c r="O125" s="69"/>
-      <c r="P125" s="69"/>
-      <c r="Q125" s="69"/>
-      <c r="R125" s="70"/>
+      <c r="A125" s="46"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="68"/>
+      <c r="J125" s="68"/>
+      <c r="K125" s="69"/>
+      <c r="L125" s="255"/>
+      <c r="M125" s="256"/>
+      <c r="N125" s="56"/>
+      <c r="O125" s="57"/>
+      <c r="P125" s="57"/>
+      <c r="Q125" s="57"/>
+      <c r="R125" s="58"/>
       <c r="S125" s="8"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
@@ -9951,30 +10367,32 @@
       <c r="AS125" s="5"/>
     </row>
     <row r="126" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="57">
+      <c r="A126" s="45">
         <v>11</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
-      <c r="H126" s="76" t="s">
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I126" s="77"/>
-      <c r="J126" s="77"/>
-      <c r="K126" s="78"/>
-      <c r="L126" s="59"/>
-      <c r="M126" s="59"/>
-      <c r="N126" s="68"/>
-      <c r="O126" s="69"/>
-      <c r="P126" s="69"/>
-      <c r="Q126" s="69"/>
-      <c r="R126" s="70"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="66"/>
+      <c r="L126" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M126" s="254"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="57"/>
+      <c r="P126" s="57"/>
+      <c r="Q126" s="57"/>
+      <c r="R126" s="58"/>
       <c r="S126" s="8"/>
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
@@ -10004,24 +10422,24 @@
       <c r="AS126" s="5"/>
     </row>
     <row r="127" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="58"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="75"/>
-      <c r="E127" s="75"/>
-      <c r="F127" s="75"/>
-      <c r="G127" s="75"/>
-      <c r="H127" s="79"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="80"/>
-      <c r="K127" s="81"/>
-      <c r="L127" s="59"/>
-      <c r="M127" s="59"/>
-      <c r="N127" s="68"/>
-      <c r="O127" s="69"/>
-      <c r="P127" s="69"/>
-      <c r="Q127" s="69"/>
-      <c r="R127" s="70"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="67"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="68"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="255"/>
+      <c r="M127" s="256"/>
+      <c r="N127" s="56"/>
+      <c r="O127" s="57"/>
+      <c r="P127" s="57"/>
+      <c r="Q127" s="57"/>
+      <c r="R127" s="58"/>
       <c r="S127" s="8"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
@@ -10051,30 +10469,32 @@
       <c r="AS127" s="5"/>
     </row>
     <row r="128" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="60">
+      <c r="A128" s="48">
         <v>12</v>
       </c>
-      <c r="B128" s="72" t="s">
+      <c r="B128" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="73"/>
-      <c r="D128" s="73"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="73"/>
-      <c r="H128" s="76" t="s">
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="78"/>
-      <c r="L128" s="63"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="68"/>
-      <c r="O128" s="69"/>
-      <c r="P128" s="69"/>
-      <c r="Q128" s="69"/>
-      <c r="R128" s="70"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="66"/>
+      <c r="L128" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M128" s="254"/>
+      <c r="N128" s="56"/>
+      <c r="O128" s="57"/>
+      <c r="P128" s="57"/>
+      <c r="Q128" s="57"/>
+      <c r="R128" s="58"/>
       <c r="S128" s="8"/>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
@@ -10104,24 +10524,24 @@
       <c r="AS128" s="5"/>
     </row>
     <row r="129" spans="1:45" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="61"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="75"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="75"/>
-      <c r="G129" s="75"/>
-      <c r="H129" s="79"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="81"/>
-      <c r="L129" s="65"/>
-      <c r="M129" s="66"/>
-      <c r="N129" s="65"/>
-      <c r="O129" s="71"/>
-      <c r="P129" s="71"/>
-      <c r="Q129" s="71"/>
-      <c r="R129" s="66"/>
+      <c r="A129" s="49"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="63"/>
+      <c r="F129" s="63"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="68"/>
+      <c r="J129" s="68"/>
+      <c r="K129" s="69"/>
+      <c r="L129" s="255"/>
+      <c r="M129" s="256"/>
+      <c r="N129" s="53"/>
+      <c r="O129" s="59"/>
+      <c r="P129" s="59"/>
+      <c r="Q129" s="59"/>
+      <c r="R129" s="54"/>
       <c r="S129" s="8"/>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
@@ -10151,290 +10571,290 @@
       <c r="AS129" s="5"/>
     </row>
     <row r="130" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="51" t="s">
+      <c r="A130" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="51"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="51"/>
-      <c r="I130" s="51"/>
-      <c r="J130" s="51"/>
-      <c r="K130" s="51"/>
-      <c r="L130" s="51"/>
-      <c r="M130" s="51"/>
-      <c r="N130" s="51"/>
-      <c r="O130" s="51"/>
-      <c r="P130" s="51"/>
-      <c r="Q130" s="51"/>
-      <c r="R130" s="51"/>
-      <c r="S130" s="51"/>
-      <c r="T130" s="51"/>
-      <c r="U130" s="51"/>
-      <c r="V130" s="51"/>
-      <c r="W130" s="51"/>
-      <c r="X130" s="51"/>
-      <c r="Y130" s="51"/>
-      <c r="Z130" s="51"/>
-      <c r="AA130" s="51"/>
-      <c r="AB130" s="51"/>
-      <c r="AC130" s="51"/>
-      <c r="AD130" s="51"/>
-      <c r="AE130" s="51"/>
-      <c r="AF130" s="51"/>
-      <c r="AG130" s="51"/>
-      <c r="AH130" s="54" t="s">
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="39"/>
+      <c r="M130" s="39"/>
+      <c r="N130" s="39"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="39"/>
+      <c r="Q130" s="39"/>
+      <c r="R130" s="39"/>
+      <c r="S130" s="39"/>
+      <c r="T130" s="39"/>
+      <c r="U130" s="39"/>
+      <c r="V130" s="39"/>
+      <c r="W130" s="39"/>
+      <c r="X130" s="39"/>
+      <c r="Y130" s="39"/>
+      <c r="Z130" s="39"/>
+      <c r="AA130" s="39"/>
+      <c r="AB130" s="39"/>
+      <c r="AC130" s="39"/>
+      <c r="AD130" s="39"/>
+      <c r="AE130" s="39"/>
+      <c r="AF130" s="39"/>
+      <c r="AG130" s="39"/>
+      <c r="AH130" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AI130" s="54"/>
-      <c r="AJ130" s="54"/>
-      <c r="AK130" s="54"/>
-      <c r="AL130" s="54"/>
-      <c r="AM130" s="54"/>
-      <c r="AN130" s="54"/>
-      <c r="AO130" s="54"/>
-      <c r="AP130" s="54"/>
-      <c r="AQ130" s="54"/>
-      <c r="AR130" s="54"/>
-      <c r="AS130" s="54"/>
+      <c r="AI130" s="42"/>
+      <c r="AJ130" s="42"/>
+      <c r="AK130" s="42"/>
+      <c r="AL130" s="42"/>
+      <c r="AM130" s="42"/>
+      <c r="AN130" s="42"/>
+      <c r="AO130" s="42"/>
+      <c r="AP130" s="42"/>
+      <c r="AQ130" s="42"/>
+      <c r="AR130" s="42"/>
+      <c r="AS130" s="42"/>
     </row>
     <row r="131" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
-      <c r="B131" s="52"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="52"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
-      <c r="H131" s="52"/>
-      <c r="I131" s="52"/>
-      <c r="J131" s="52"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="52"/>
-      <c r="N131" s="52"/>
-      <c r="O131" s="52"/>
-      <c r="P131" s="52"/>
-      <c r="Q131" s="52"/>
-      <c r="R131" s="52"/>
-      <c r="S131" s="52"/>
-      <c r="T131" s="52"/>
-      <c r="U131" s="52"/>
-      <c r="V131" s="52"/>
-      <c r="W131" s="52"/>
-      <c r="X131" s="52"/>
-      <c r="Y131" s="52"/>
-      <c r="Z131" s="52"/>
-      <c r="AA131" s="52"/>
-      <c r="AB131" s="52"/>
-      <c r="AC131" s="52"/>
-      <c r="AD131" s="52"/>
-      <c r="AE131" s="52"/>
-      <c r="AF131" s="52"/>
-      <c r="AG131" s="52"/>
-      <c r="AH131" s="55"/>
-      <c r="AI131" s="55"/>
-      <c r="AJ131" s="55"/>
-      <c r="AK131" s="55"/>
-      <c r="AL131" s="55"/>
-      <c r="AM131" s="55"/>
-      <c r="AN131" s="55"/>
-      <c r="AO131" s="55"/>
-      <c r="AP131" s="55"/>
-      <c r="AQ131" s="55"/>
-      <c r="AR131" s="55"/>
-      <c r="AS131" s="55"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
+      <c r="Q131" s="40"/>
+      <c r="R131" s="40"/>
+      <c r="S131" s="40"/>
+      <c r="T131" s="40"/>
+      <c r="U131" s="40"/>
+      <c r="V131" s="40"/>
+      <c r="W131" s="40"/>
+      <c r="X131" s="40"/>
+      <c r="Y131" s="40"/>
+      <c r="Z131" s="40"/>
+      <c r="AA131" s="40"/>
+      <c r="AB131" s="40"/>
+      <c r="AC131" s="40"/>
+      <c r="AD131" s="40"/>
+      <c r="AE131" s="40"/>
+      <c r="AF131" s="40"/>
+      <c r="AG131" s="40"/>
+      <c r="AH131" s="43"/>
+      <c r="AI131" s="43"/>
+      <c r="AJ131" s="43"/>
+      <c r="AK131" s="43"/>
+      <c r="AL131" s="43"/>
+      <c r="AM131" s="43"/>
+      <c r="AN131" s="43"/>
+      <c r="AO131" s="43"/>
+      <c r="AP131" s="43"/>
+      <c r="AQ131" s="43"/>
+      <c r="AR131" s="43"/>
+      <c r="AS131" s="43"/>
     </row>
     <row r="132" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
-      <c r="I132" s="52"/>
-      <c r="J132" s="52"/>
-      <c r="K132" s="52"/>
-      <c r="L132" s="52"/>
-      <c r="M132" s="52"/>
-      <c r="N132" s="52"/>
-      <c r="O132" s="52"/>
-      <c r="P132" s="52"/>
-      <c r="Q132" s="52"/>
-      <c r="R132" s="52"/>
-      <c r="S132" s="52"/>
-      <c r="T132" s="52"/>
-      <c r="U132" s="52"/>
-      <c r="V132" s="52"/>
-      <c r="W132" s="52"/>
-      <c r="X132" s="52"/>
-      <c r="Y132" s="52"/>
-      <c r="Z132" s="52"/>
-      <c r="AA132" s="52"/>
-      <c r="AB132" s="52"/>
-      <c r="AC132" s="52"/>
-      <c r="AD132" s="52"/>
-      <c r="AE132" s="52"/>
-      <c r="AF132" s="52"/>
-      <c r="AG132" s="52"/>
-      <c r="AH132" s="55"/>
-      <c r="AI132" s="55"/>
-      <c r="AJ132" s="55"/>
-      <c r="AK132" s="55"/>
-      <c r="AL132" s="55"/>
-      <c r="AM132" s="55"/>
-      <c r="AN132" s="55"/>
-      <c r="AO132" s="55"/>
-      <c r="AP132" s="55"/>
-      <c r="AQ132" s="55"/>
-      <c r="AR132" s="55"/>
-      <c r="AS132" s="55"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
+      <c r="Q132" s="40"/>
+      <c r="R132" s="40"/>
+      <c r="S132" s="40"/>
+      <c r="T132" s="40"/>
+      <c r="U132" s="40"/>
+      <c r="V132" s="40"/>
+      <c r="W132" s="40"/>
+      <c r="X132" s="40"/>
+      <c r="Y132" s="40"/>
+      <c r="Z132" s="40"/>
+      <c r="AA132" s="40"/>
+      <c r="AB132" s="40"/>
+      <c r="AC132" s="40"/>
+      <c r="AD132" s="40"/>
+      <c r="AE132" s="40"/>
+      <c r="AF132" s="40"/>
+      <c r="AG132" s="40"/>
+      <c r="AH132" s="43"/>
+      <c r="AI132" s="43"/>
+      <c r="AJ132" s="43"/>
+      <c r="AK132" s="43"/>
+      <c r="AL132" s="43"/>
+      <c r="AM132" s="43"/>
+      <c r="AN132" s="43"/>
+      <c r="AO132" s="43"/>
+      <c r="AP132" s="43"/>
+      <c r="AQ132" s="43"/>
+      <c r="AR132" s="43"/>
+      <c r="AS132" s="43"/>
     </row>
     <row r="133" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
-      <c r="B133" s="52"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="52"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
-      <c r="J133" s="52"/>
-      <c r="K133" s="52"/>
-      <c r="L133" s="52"/>
-      <c r="M133" s="52"/>
-      <c r="N133" s="52"/>
-      <c r="O133" s="52"/>
-      <c r="P133" s="52"/>
-      <c r="Q133" s="52"/>
-      <c r="R133" s="52"/>
-      <c r="S133" s="52"/>
-      <c r="T133" s="52"/>
-      <c r="U133" s="52"/>
-      <c r="V133" s="52"/>
-      <c r="W133" s="52"/>
-      <c r="X133" s="52"/>
-      <c r="Y133" s="52"/>
-      <c r="Z133" s="52"/>
-      <c r="AA133" s="52"/>
-      <c r="AB133" s="52"/>
-      <c r="AC133" s="52"/>
-      <c r="AD133" s="52"/>
-      <c r="AE133" s="52"/>
-      <c r="AF133" s="52"/>
-      <c r="AG133" s="52"/>
-      <c r="AH133" s="55"/>
-      <c r="AI133" s="55"/>
-      <c r="AJ133" s="55"/>
-      <c r="AK133" s="55"/>
-      <c r="AL133" s="55"/>
-      <c r="AM133" s="55"/>
-      <c r="AN133" s="55"/>
-      <c r="AO133" s="55"/>
-      <c r="AP133" s="55"/>
-      <c r="AQ133" s="55"/>
-      <c r="AR133" s="55"/>
-      <c r="AS133" s="55"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="40"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="40"/>
+      <c r="O133" s="40"/>
+      <c r="P133" s="40"/>
+      <c r="Q133" s="40"/>
+      <c r="R133" s="40"/>
+      <c r="S133" s="40"/>
+      <c r="T133" s="40"/>
+      <c r="U133" s="40"/>
+      <c r="V133" s="40"/>
+      <c r="W133" s="40"/>
+      <c r="X133" s="40"/>
+      <c r="Y133" s="40"/>
+      <c r="Z133" s="40"/>
+      <c r="AA133" s="40"/>
+      <c r="AB133" s="40"/>
+      <c r="AC133" s="40"/>
+      <c r="AD133" s="40"/>
+      <c r="AE133" s="40"/>
+      <c r="AF133" s="40"/>
+      <c r="AG133" s="40"/>
+      <c r="AH133" s="43"/>
+      <c r="AI133" s="43"/>
+      <c r="AJ133" s="43"/>
+      <c r="AK133" s="43"/>
+      <c r="AL133" s="43"/>
+      <c r="AM133" s="43"/>
+      <c r="AN133" s="43"/>
+      <c r="AO133" s="43"/>
+      <c r="AP133" s="43"/>
+      <c r="AQ133" s="43"/>
+      <c r="AR133" s="43"/>
+      <c r="AS133" s="43"/>
     </row>
     <row r="134" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="52"/>
-      <c r="J134" s="52"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="52"/>
-      <c r="M134" s="52"/>
-      <c r="N134" s="52"/>
-      <c r="O134" s="52"/>
-      <c r="P134" s="52"/>
-      <c r="Q134" s="52"/>
-      <c r="R134" s="52"/>
-      <c r="S134" s="52"/>
-      <c r="T134" s="52"/>
-      <c r="U134" s="52"/>
-      <c r="V134" s="52"/>
-      <c r="W134" s="52"/>
-      <c r="X134" s="52"/>
-      <c r="Y134" s="52"/>
-      <c r="Z134" s="52"/>
-      <c r="AA134" s="52"/>
-      <c r="AB134" s="52"/>
-      <c r="AC134" s="52"/>
-      <c r="AD134" s="52"/>
-      <c r="AE134" s="52"/>
-      <c r="AF134" s="52"/>
-      <c r="AG134" s="52"/>
-      <c r="AH134" s="55"/>
-      <c r="AI134" s="55"/>
-      <c r="AJ134" s="55"/>
-      <c r="AK134" s="55"/>
-      <c r="AL134" s="55"/>
-      <c r="AM134" s="55"/>
-      <c r="AN134" s="55"/>
-      <c r="AO134" s="55"/>
-      <c r="AP134" s="55"/>
-      <c r="AQ134" s="55"/>
-      <c r="AR134" s="55"/>
-      <c r="AS134" s="55"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="40"/>
+      <c r="O134" s="40"/>
+      <c r="P134" s="40"/>
+      <c r="Q134" s="40"/>
+      <c r="R134" s="40"/>
+      <c r="S134" s="40"/>
+      <c r="T134" s="40"/>
+      <c r="U134" s="40"/>
+      <c r="V134" s="40"/>
+      <c r="W134" s="40"/>
+      <c r="X134" s="40"/>
+      <c r="Y134" s="40"/>
+      <c r="Z134" s="40"/>
+      <c r="AA134" s="40"/>
+      <c r="AB134" s="40"/>
+      <c r="AC134" s="40"/>
+      <c r="AD134" s="40"/>
+      <c r="AE134" s="40"/>
+      <c r="AF134" s="40"/>
+      <c r="AG134" s="40"/>
+      <c r="AH134" s="43"/>
+      <c r="AI134" s="43"/>
+      <c r="AJ134" s="43"/>
+      <c r="AK134" s="43"/>
+      <c r="AL134" s="43"/>
+      <c r="AM134" s="43"/>
+      <c r="AN134" s="43"/>
+      <c r="AO134" s="43"/>
+      <c r="AP134" s="43"/>
+      <c r="AQ134" s="43"/>
+      <c r="AR134" s="43"/>
+      <c r="AS134" s="43"/>
     </row>
     <row r="135" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="53"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
-      <c r="I135" s="53"/>
-      <c r="J135" s="53"/>
-      <c r="K135" s="53"/>
-      <c r="L135" s="53"/>
-      <c r="M135" s="53"/>
-      <c r="N135" s="53"/>
-      <c r="O135" s="53"/>
-      <c r="P135" s="53"/>
-      <c r="Q135" s="53"/>
-      <c r="R135" s="53"/>
-      <c r="S135" s="53"/>
-      <c r="T135" s="53"/>
-      <c r="U135" s="53"/>
-      <c r="V135" s="53"/>
-      <c r="W135" s="53"/>
-      <c r="X135" s="53"/>
-      <c r="Y135" s="53"/>
-      <c r="Z135" s="53"/>
-      <c r="AA135" s="53"/>
-      <c r="AB135" s="53"/>
-      <c r="AC135" s="53"/>
-      <c r="AD135" s="53"/>
-      <c r="AE135" s="53"/>
-      <c r="AF135" s="53"/>
-      <c r="AG135" s="53"/>
-      <c r="AH135" s="56"/>
-      <c r="AI135" s="56"/>
-      <c r="AJ135" s="56"/>
-      <c r="AK135" s="56"/>
-      <c r="AL135" s="56"/>
-      <c r="AM135" s="56"/>
-      <c r="AN135" s="56"/>
-      <c r="AO135" s="56"/>
-      <c r="AP135" s="56"/>
-      <c r="AQ135" s="56"/>
-      <c r="AR135" s="56"/>
-      <c r="AS135" s="56"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="41"/>
+      <c r="N135" s="41"/>
+      <c r="O135" s="41"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="41"/>
+      <c r="R135" s="41"/>
+      <c r="S135" s="41"/>
+      <c r="T135" s="41"/>
+      <c r="U135" s="41"/>
+      <c r="V135" s="41"/>
+      <c r="W135" s="41"/>
+      <c r="X135" s="41"/>
+      <c r="Y135" s="41"/>
+      <c r="Z135" s="41"/>
+      <c r="AA135" s="41"/>
+      <c r="AB135" s="41"/>
+      <c r="AC135" s="41"/>
+      <c r="AD135" s="41"/>
+      <c r="AE135" s="41"/>
+      <c r="AF135" s="41"/>
+      <c r="AG135" s="41"/>
+      <c r="AH135" s="44"/>
+      <c r="AI135" s="44"/>
+      <c r="AJ135" s="44"/>
+      <c r="AK135" s="44"/>
+      <c r="AL135" s="44"/>
+      <c r="AM135" s="44"/>
+      <c r="AN135" s="44"/>
+      <c r="AO135" s="44"/>
+      <c r="AP135" s="44"/>
+      <c r="AQ135" s="44"/>
+      <c r="AR135" s="44"/>
+      <c r="AS135" s="44"/>
     </row>
     <row r="136" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10635,6 +11055,10 @@
     <mergeCell ref="Q44:S44"/>
     <mergeCell ref="T44:V44"/>
     <mergeCell ref="T45:V45"/>
+    <mergeCell ref="N48:R56"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="T38:V38"/>
     <mergeCell ref="AQ33:AS33"/>
     <mergeCell ref="AH32:AK32"/>
     <mergeCell ref="AL33:AM33"/>
@@ -10646,6 +11070,8 @@
     <mergeCell ref="AL29:AM29"/>
     <mergeCell ref="AH29:AK29"/>
     <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AN28:AP28"/>
     <mergeCell ref="B110:G111"/>
     <mergeCell ref="H110:K111"/>
     <mergeCell ref="B94:G95"/>
@@ -10684,6 +11110,8 @@
     <mergeCell ref="B86:G87"/>
     <mergeCell ref="H86:K87"/>
     <mergeCell ref="A88:A89"/>
+    <mergeCell ref="H84:K85"/>
+    <mergeCell ref="A86:A87"/>
     <mergeCell ref="B65:G66"/>
     <mergeCell ref="H65:K66"/>
     <mergeCell ref="B67:G68"/>
@@ -10728,9 +11156,6 @@
     <mergeCell ref="Q25:S25"/>
     <mergeCell ref="X25:AA25"/>
     <mergeCell ref="T25:V25"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AE29:AG29"/>
     <mergeCell ref="AE30:AG30"/>
     <mergeCell ref="AE32:AG32"/>
     <mergeCell ref="AE33:AG33"/>
@@ -10742,7 +11167,6 @@
     <mergeCell ref="AH30:AK30"/>
     <mergeCell ref="AL31:AM31"/>
     <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AN28:AP28"/>
     <mergeCell ref="AH34:AK34"/>
     <mergeCell ref="AL35:AM35"/>
     <mergeCell ref="AH35:AK35"/>
@@ -10775,9 +11199,6 @@
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="AE38:AG38"/>
     <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="N48:R56"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="L50:M51"/>
     <mergeCell ref="Q35:S35"/>
     <mergeCell ref="T28:V28"/>
     <mergeCell ref="T29:V29"/>
@@ -10789,7 +11210,19 @@
     <mergeCell ref="T35:V35"/>
     <mergeCell ref="T31:V31"/>
     <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB26:AD27"/>
+    <mergeCell ref="AB28:AD29"/>
+    <mergeCell ref="AB30:AD31"/>
+    <mergeCell ref="AB32:AD33"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="X26:AA27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AE29:AG29"/>
     <mergeCell ref="AK1:AS3"/>
     <mergeCell ref="A4:AJ6"/>
     <mergeCell ref="W9:AJ10"/>
@@ -10816,17 +11249,6 @@
     <mergeCell ref="AN26:AP26"/>
     <mergeCell ref="AN27:AP27"/>
     <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB26:AD27"/>
-    <mergeCell ref="AB28:AD29"/>
-    <mergeCell ref="AB30:AD31"/>
-    <mergeCell ref="AB32:AD33"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="X26:AA27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T32:V32"/>
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="O37:P37"/>
@@ -10885,8 +11307,7 @@
     <mergeCell ref="AN40:AS45"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="W40:AM45"/>
-    <mergeCell ref="H84:K85"/>
-    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="O41:P41"/>
     <mergeCell ref="L86:M87"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="S69:AS69"/>
@@ -10909,6 +11330,8 @@
     <mergeCell ref="L54:M56"/>
     <mergeCell ref="L65:M66"/>
     <mergeCell ref="L61:M62"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A40:D43"/>
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="L91:M91"/>
@@ -11000,9 +11423,6 @@
     <mergeCell ref="L128:M129"/>
     <mergeCell ref="A122:A123"/>
     <mergeCell ref="L122:M123"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A40:D43"/>
-    <mergeCell ref="O41:P41"/>
     <mergeCell ref="K41:N41"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="K42:N42"/>
